--- a/KODOWANIE KOMPONENTÓW.xlsx
+++ b/KODOWANIE KOMPONENTÓW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.miekos\source\repos\Komponenty_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F82967C-0AD9-4DB1-8B15-9BEA65809423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DA4F3-C7B5-4CBA-99A6-E3B422E7D7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Paweł Makarczuk</author>
+    <author>Przemysław Miękós</author>
   </authors>
   <commentList>
     <comment ref="D59" authorId="0" shapeId="0" xr:uid="{61BDCD45-B087-4B05-A0A0-745534D2DA0C}">
@@ -81,6 +82,147 @@
     <comment ref="D75" authorId="0" shapeId="0" xr:uid="{B1E45097-8BD0-4F3B-9CFF-5A1074BC5E8C}">
       <text/>
     </comment>
+    <comment ref="D84" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D85" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D89" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
+      <text/>
+    </comment>
+    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
+      <text/>
+    </comment>
+    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
+      <text/>
+    </comment>
+    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
+      <text/>
+    </comment>
+    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
+      <text/>
+    </comment>
+    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
+      <text/>
+    </comment>
+    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
+      <text/>
+    </comment>
+    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
+      <text/>
+    </comment>
+    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
+      <text/>
+    </comment>
+    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
+      <text/>
+    </comment>
+    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
+      <text/>
+    </comment>
+    <comment ref="D103" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
+      <text/>
+    </comment>
+    <comment ref="D104" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
+      <text/>
+    </comment>
+    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
+      <text/>
+    </comment>
+    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
+      <text/>
+    </comment>
+    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
+      <text/>
+    </comment>
+    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
+      <text/>
+    </comment>
+    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
+      <text/>
+    </comment>
+    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
+      <text/>
+    </comment>
+    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
+      <text/>
+    </comment>
+    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
+      <text/>
+    </comment>
+    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
+      <text/>
+    </comment>
+    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
+      <text/>
+    </comment>
+    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
+      <text/>
+    </comment>
+    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
+      <text/>
+    </comment>
+    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
+      <text/>
+    </comment>
+    <comment ref="D119" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
+      <text/>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -812,7 +954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,8 +980,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1033,10 +1196,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,12 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1586,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1401,7 +1603,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1418,7 +1620,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1435,7 +1637,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1452,7 +1654,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1469,7 +1671,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1486,7 +1688,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1503,7 +1705,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1520,7 +1722,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1537,13 +1739,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1554,7 +1756,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1571,7 +1773,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1588,7 +1790,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1605,7 +1807,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1622,7 +1824,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1639,7 +1841,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1656,7 +1858,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1673,7 +1875,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1707,7 +1909,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1724,7 +1926,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1741,7 +1943,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1758,7 +1960,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1775,7 +1977,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1792,7 +1994,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1809,7 +2011,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1826,7 +2028,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1843,13 +2045,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1860,7 +2062,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1877,7 +2079,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1894,7 +2096,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1911,7 +2113,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1928,7 +2130,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1945,7 +2147,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1962,7 +2164,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1979,7 +2181,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1996,7 +2198,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2013,7 +2215,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2030,7 +2232,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2047,7 +2249,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2064,7 +2266,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2081,7 +2283,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2098,7 +2300,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2115,7 +2317,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2132,7 +2334,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2149,7 +2351,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2166,7 +2368,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2183,7 +2385,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2200,7 +2402,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2217,7 +2419,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2234,7 +2436,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -4937,7 +5139,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB7D0D7-10B5-4F5D-A409-8E69E901CBDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4981,15 +5183,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>69631</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>97878</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>536356</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>278853</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4999,7 +5201,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4783F60E-9A80-4A40-B747-0AC93505A6AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5061,7 +5263,7 @@
                   <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B6C6D-7FD0-4A0B-90BD-AE8576B750EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5123,7 +5325,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0958533-CEA4-482D-973E-EB655777FD80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5185,7 +5387,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB46476A-190F-450C-B543-AC6B0FDDFE64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5247,7 +5449,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F15715-495F-4415-965D-E5BA3E676D5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5309,7 +5511,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C32837-0F81-4F4A-A457-384F46164324}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5371,7 +5573,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD5180D-12C7-47DE-82B8-34269E80CEC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5713,8 +5915,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114:I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,14 +6535,14 @@
       <c r="C58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
       <c r="J58" s="25" t="s">
         <v>115</v>
       </c>
@@ -6352,32 +6554,32 @@
       <c r="C59" s="23">
         <v>1000</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="36">
         <v>1001</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="4"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="22" t="s">
@@ -6386,32 +6588,32 @@
       <c r="C61" s="23">
         <v>1002</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="22" t="s">
+    <row r="62" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="36">
         <v>1003</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="4"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
@@ -6420,32 +6622,32 @@
       <c r="C63" s="23">
         <v>1004</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="22" t="s">
+    <row r="64" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="36">
         <v>1005</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="4"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
@@ -6454,32 +6656,32 @@
       <c r="C65" s="23">
         <v>1006</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
+    <row r="66" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="36">
         <v>1007</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="4"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
@@ -6488,32 +6690,32 @@
       <c r="C67" s="23">
         <v>1008</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="36">
         <v>1009</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="4"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="37"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
@@ -6522,32 +6724,32 @@
       <c r="C69" s="23">
         <v>1010</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="s">
+    <row r="70" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="36">
         <v>1011</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="4"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="37"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
@@ -6556,32 +6758,32 @@
       <c r="C71" s="23">
         <v>1012</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="22" t="s">
+    <row r="72" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="36">
         <v>1013</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="4"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="37"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
@@ -6590,32 +6792,32 @@
       <c r="C73" s="23">
         <v>1014</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="36">
         <v>1015</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="4"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
@@ -6624,14 +6826,14 @@
       <c r="C75" s="23">
         <v>1016</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -6657,14 +6859,14 @@
       <c r="C80" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
       <c r="J80" s="24" t="s">
         <v>115</v>
       </c>
@@ -6676,34 +6878,34 @@
       <c r="C81" s="28">
         <v>2000</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
       <c r="J81" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
+    <row r="82" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="40">
         <v>2001</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="29" t="s">
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6714,34 +6916,34 @@
       <c r="C83" s="28">
         <v>2002</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
       <c r="J83" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="27" t="s">
+    <row r="84" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="40">
         <v>2003</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="29" t="s">
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6752,34 +6954,34 @@
       <c r="C85" s="28">
         <v>2004</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
       <c r="J85" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="27" t="s">
+    <row r="86" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="40">
         <v>2005</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="29" t="s">
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6790,34 +6992,34 @@
       <c r="C87" s="28">
         <v>2006</v>
       </c>
-      <c r="D87" s="34" t="s">
+      <c r="D87" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="27" t="s">
+    <row r="88" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C88" s="40">
         <v>2007</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="29" t="s">
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="41" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6828,34 +7030,34 @@
       <c r="C89" s="28">
         <v>2008</v>
       </c>
-      <c r="D89" s="34" t="s">
+      <c r="D89" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
       <c r="J89" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+    <row r="90" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="40">
         <v>2009</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="29" t="s">
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="41" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6866,34 +7068,34 @@
       <c r="C91" s="28">
         <v>2010</v>
       </c>
-      <c r="D91" s="34" t="s">
+      <c r="D91" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
       <c r="J91" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="27" t="s">
+    <row r="92" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="40">
         <v>2011</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="29" t="s">
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="41" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6904,34 +7106,34 @@
       <c r="C93" s="28">
         <v>2012</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
       <c r="J93" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="27" t="s">
+    <row r="94" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="40">
         <v>2013</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="29" t="s">
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6942,34 +7144,34 @@
       <c r="C95" s="28">
         <v>2014</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
       <c r="J95" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="27" t="s">
+    <row r="96" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="40">
         <v>2015</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="29" t="s">
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6980,34 +7182,34 @@
       <c r="C97" s="28">
         <v>2016</v>
       </c>
-      <c r="D97" s="34" t="s">
+      <c r="D97" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
       <c r="J97" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="27" t="s">
+    <row r="98" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="40">
         <v>2017</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="29" t="s">
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7018,37 +7220,37 @@
       <c r="C99" s="28">
         <v>2018</v>
       </c>
-      <c r="D99" s="34" t="s">
+      <c r="D99" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
       <c r="J99" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="27" t="s">
+    <row r="100" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C100" s="40">
         <v>2019</v>
       </c>
-      <c r="D100" s="34" t="s">
+      <c r="D100" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="29" t="s">
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="38" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7059,14 +7261,14 @@
       <c r="C101" s="28">
         <v>2020</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="29" t="s">
         <v>117</v>
       </c>
@@ -7074,25 +7276,25 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="27" t="s">
+    <row r="102" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="28">
+      <c r="C102" s="40">
         <v>2021</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="29" t="s">
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="38" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7103,34 +7305,34 @@
       <c r="C103" s="28">
         <v>2022</v>
       </c>
-      <c r="D103" s="34" t="s">
+      <c r="D103" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="27" t="s">
+    <row r="104" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="28">
+      <c r="C104" s="40">
         <v>2023</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="D104" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="29" t="s">
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7141,34 +7343,34 @@
       <c r="C105" s="28">
         <v>2024</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D105" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
       <c r="J105" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="27" t="s">
+    <row r="106" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="28">
+      <c r="C106" s="40">
         <v>2025</v>
       </c>
-      <c r="D106" s="34" t="s">
+      <c r="D106" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="29" t="s">
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7179,34 +7381,34 @@
       <c r="C107" s="28">
         <v>2026</v>
       </c>
-      <c r="D107" s="34" t="s">
+      <c r="D107" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="27" t="s">
+    <row r="108" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C108" s="40">
         <v>2027</v>
       </c>
-      <c r="D108" s="34" t="s">
+      <c r="D108" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="29" t="s">
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7217,34 +7419,34 @@
       <c r="C109" s="28">
         <v>2028</v>
       </c>
-      <c r="D109" s="34" t="s">
+      <c r="D109" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
       <c r="J109" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="27" t="s">
+    <row r="110" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C110" s="40">
         <v>2029</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="29" t="s">
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7255,14 +7457,14 @@
       <c r="C111" s="28">
         <v>2030</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
       <c r="J111" s="29" t="s">
         <v>122</v>
       </c>
@@ -7270,23 +7472,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
-      <c r="B112" s="27" t="s">
+    <row r="112" spans="1:11" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42"/>
+      <c r="B112" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C112" s="40">
         <v>2031</v>
       </c>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="29" t="s">
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7297,34 +7499,34 @@
       <c r="C113" s="28">
         <v>2032</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
       <c r="J113" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="27" t="s">
+    <row r="114" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114" s="40">
         <v>2033</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="29" t="s">
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7335,34 +7537,34 @@
       <c r="C115" s="28">
         <v>2034</v>
       </c>
-      <c r="D115" s="34" t="s">
+      <c r="D115" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
       <c r="J115" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
+    <row r="116" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="40">
         <v>2035</v>
       </c>
-      <c r="D116" s="34" t="s">
+      <c r="D116" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
-      <c r="J116" s="29" t="s">
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7373,53 +7575,53 @@
       <c r="C117" s="28">
         <v>2036</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
       <c r="J117" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+    <row r="118" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C118" s="40">
         <v>80</v>
       </c>
-      <c r="D118" s="34" t="s">
+      <c r="D118" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
-      <c r="J118" s="29" t="s">
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="27" t="s">
+    <row r="119" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C119" s="44">
         <v>2037</v>
       </c>
-      <c r="D119" s="34" t="s">
+      <c r="D119" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="29" t="s">
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="45" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7430,14 +7632,14 @@
       <c r="C120" s="28">
         <v>79</v>
       </c>
-      <c r="D120" s="34" t="s">
+      <c r="D120" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="34"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
       <c r="J120" s="29" t="s">
         <v>182</v>
       </c>
@@ -7449,14 +7651,14 @@
       <c r="C121" s="28">
         <v>62</v>
       </c>
-      <c r="D121" s="34" t="s">
+      <c r="D121" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="34"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
       <c r="J121" s="29" t="s">
         <v>182</v>
       </c>
@@ -7468,14 +7670,14 @@
       <c r="C122" s="28">
         <v>91</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D122" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
       <c r="J122" s="29" t="s">
         <v>182</v>
       </c>
@@ -7487,14 +7689,14 @@
       <c r="C123" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="34"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
       <c r="J123" s="29" t="s">
         <v>182</v>
       </c>
@@ -7506,14 +7708,14 @@
       <c r="C124" s="30">
         <v>66</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
       <c r="J124" s="29" t="s">
         <v>182</v>
       </c>
@@ -7525,14 +7727,14 @@
       <c r="C125" s="30">
         <v>76</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
-      <c r="I125" s="34"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
       <c r="J125" s="29" t="s">
         <v>182</v>
       </c>
@@ -7544,14 +7746,14 @@
       <c r="C126" s="30">
         <v>77</v>
       </c>
-      <c r="D126" s="34" t="s">
+      <c r="D126" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
-      <c r="I126" s="34"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
       <c r="J126" s="29" t="s">
         <v>182</v>
       </c>
@@ -7559,6 +7761,55 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="65">
+    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D89:I89"/>
+    <mergeCell ref="D90:I90"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
     <mergeCell ref="D125:I125"/>
     <mergeCell ref="D126:I126"/>
     <mergeCell ref="D119:I119"/>
@@ -7575,55 +7826,6 @@
     <mergeCell ref="D120:I120"/>
     <mergeCell ref="D121:I121"/>
     <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D89:I89"/>
-    <mergeCell ref="D90:I90"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D106:I106"/>
   </mergeCells>
   <conditionalFormatting sqref="C81:C97 C99:C116">
     <cfRule type="duplicateValues" dxfId="30" priority="30"/>
@@ -7701,7 +7903,1257 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1121" r:id="rId4" name="_ActiveXWrapper51">
+        <control shapeId="1112" r:id="rId4" name="_ActiveXWrapper43">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1112" r:id="rId4" name="_ActiveXWrapper43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId6" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId6" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId7" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId7" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId8" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId8" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId9" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId9" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId10" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId10" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId11" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId11" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId12" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId12" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId13" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId13" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId14" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId14" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId15" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId15" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId16" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId16" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId17" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId17" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId18" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId18" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId19" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId19" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId20" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId20" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId21" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId21" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId22" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId22" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId24" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>80</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId24" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId25" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId25" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId26" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId26" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId27" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId27" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId28" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId28" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId29" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId29" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId30" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId30" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1094" r:id="rId31" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1094" r:id="rId31" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId32" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId32" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId33" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId33" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId34" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId34" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId35" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId35" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId36" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId36" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId37" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId37" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId38" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId38" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId39" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId39" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId40" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId40" name="_ActiveXWrapper34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId41" name="_ActiveXWrapper35">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId41" name="_ActiveXWrapper35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId42" name="_ActiveXWrapper36">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId42" name="_ActiveXWrapper36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId43" name="_ActiveXWrapper37">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId43" name="_ActiveXWrapper37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId44" name="_ActiveXWrapper38">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1107" r:id="rId44" name="_ActiveXWrapper38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId45" name="_ActiveXWrapper39">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1108" r:id="rId45" name="_ActiveXWrapper39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1109" r:id="rId46" name="_ActiveXWrapper40">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId46" name="_ActiveXWrapper40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId47" name="_ActiveXWrapper41">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId47" name="_ActiveXWrapper41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId48" name="_ActiveXWrapper42">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId48" name="_ActiveXWrapper42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId49" name="_ActiveXWrapper44">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId49" name="_ActiveXWrapper44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1114" r:id="rId50" name="_ActiveXWrapper45">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId50" name="_ActiveXWrapper45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1116" r:id="rId51" name="_ActiveXWrapper46">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1116" r:id="rId51" name="_ActiveXWrapper46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1117" r:id="rId52" name="_ActiveXWrapper47">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1117" r:id="rId52" name="_ActiveXWrapper47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1118" r:id="rId53" name="_ActiveXWrapper48">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1118" r:id="rId53" name="_ActiveXWrapper48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1119" r:id="rId54" name="_ActiveXWrapper49">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1119" r:id="rId54" name="_ActiveXWrapper49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1120" r:id="rId55" name="_ActiveXWrapper50">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1120" r:id="rId55" name="_ActiveXWrapper50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1121" r:id="rId56" name="_ActiveXWrapper51">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -7721,1257 +9173,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1121" r:id="rId4" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1120" r:id="rId6" name="_ActiveXWrapper50">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1120" r:id="rId6" name="_ActiveXWrapper50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1119" r:id="rId7" name="_ActiveXWrapper49">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1119" r:id="rId7" name="_ActiveXWrapper49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1118" r:id="rId8" name="_ActiveXWrapper48">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1118" r:id="rId8" name="_ActiveXWrapper48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1117" r:id="rId9" name="_ActiveXWrapper47">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1117" r:id="rId9" name="_ActiveXWrapper47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1116" r:id="rId10" name="_ActiveXWrapper46">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1116" r:id="rId10" name="_ActiveXWrapper46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId11" name="_ActiveXWrapper45">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId11" name="_ActiveXWrapper45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId12" name="_ActiveXWrapper44">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1113" r:id="rId12" name="_ActiveXWrapper44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId13" name="_ActiveXWrapper42">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1111" r:id="rId13" name="_ActiveXWrapper42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId14" name="_ActiveXWrapper41">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1110" r:id="rId14" name="_ActiveXWrapper41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId15" name="_ActiveXWrapper40">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1109" r:id="rId15" name="_ActiveXWrapper40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId16" name="_ActiveXWrapper39">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1108" r:id="rId16" name="_ActiveXWrapper39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId17" name="_ActiveXWrapper38">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1107" r:id="rId17" name="_ActiveXWrapper38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId18" name="_ActiveXWrapper37">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1106" r:id="rId18" name="_ActiveXWrapper37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId19" name="_ActiveXWrapper36">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId19" name="_ActiveXWrapper36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId20" name="_ActiveXWrapper35">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId20" name="_ActiveXWrapper35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId21" name="_ActiveXWrapper34">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId21" name="_ActiveXWrapper34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId22" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId22" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId23" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId23" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId24" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId24" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId25" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId25" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId26" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId26" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId27" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId27" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId28" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1096" r:id="rId28" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId29" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1095" r:id="rId29" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId30" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1094" r:id="rId30" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId32" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId32" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId33" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId33" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId34" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1090" r:id="rId34" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId35" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1089" r:id="rId35" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId36" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId36" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId37" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId37" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId38" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId38" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId40" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId40" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId41" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId41" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId42" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId42" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId43" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId43" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId44" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId44" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId45" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId45" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId46" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId46" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId47" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId47" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId48" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId48" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId49" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId49" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId50" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId50" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId51" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId51" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId52" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId52" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId53" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId53" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId54" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId54" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId55" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId55" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId56" name="_ActiveXWrapper43">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1112" r:id="rId56" name="_ActiveXWrapper43"/>
+        <control shapeId="1121" r:id="rId56" name="_ActiveXWrapper51"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/KODOWANIE KOMPONENTÓW.xlsx
+++ b/KODOWANIE KOMPONENTÓW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.miekos\source\repos\Komponenty_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DA4F3-C7B5-4CBA-99A6-E3B422E7D7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE17AD-E760-454E-ABF0-308C9A8B0CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11985" windowHeight="15735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <comment ref="D75" authorId="0" shapeId="0" xr:uid="{B1E45097-8BD0-4F3B-9CFF-5A1074BC5E8C}">
       <text/>
     </comment>
-    <comment ref="D84" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
+    <comment ref="D85" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D85" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
+    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
+    <comment ref="D87" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
+    <comment ref="D89" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
       <text>
         <r>
           <rPr>
@@ -142,85 +142,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="D89" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
+    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
       <text/>
     </comment>
-    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
+    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
       <text/>
     </comment>
-    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
+    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
       <text/>
     </comment>
-    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
+    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
       <text/>
     </comment>
-    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
+    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
       <text/>
     </comment>
-    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
+    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
       <text/>
     </comment>
-    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
+    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
       <text/>
     </comment>
-    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
+    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
       <text/>
     </comment>
-    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
+    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
       <text/>
     </comment>
-    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
+    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
       <text/>
     </comment>
-    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
+    <comment ref="D100" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
       <text/>
     </comment>
-    <comment ref="D103" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
+    <comment ref="D104" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
       <text/>
     </comment>
-    <comment ref="D104" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
+    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
       <text/>
     </comment>
-    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
+    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
       <text/>
     </comment>
-    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
+    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
       <text/>
     </comment>
-    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
+    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
       <text/>
     </comment>
-    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
+    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
       <text/>
     </comment>
-    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
+    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
       <text/>
     </comment>
-    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
+    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
       <text/>
     </comment>
-    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
+    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
       <text/>
     </comment>
-    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
+    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
       <text/>
     </comment>
-    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
+    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
       <text/>
     </comment>
-    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
+    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
       <text/>
     </comment>
-    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
+    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
       <text/>
     </comment>
-    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
+    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
       <text/>
     </comment>
-    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
+    <comment ref="D118" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
       <text/>
     </comment>
-    <comment ref="D119" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
+    <comment ref="D120" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
       <text/>
     </comment>
   </commentList>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="233">
   <si>
     <t>KODOWANIE KOMPONENTÓW W TEKLI:</t>
   </si>
@@ -949,12 +949,21 @@
   <si>
     <t>Słupek podkonstrukcji</t>
   </si>
+  <si>
+    <t>Żebra</t>
+  </si>
+  <si>
+    <t>Wstawianie żeber do belek</t>
+  </si>
+  <si>
+    <t>Tekla</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,14 +990,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1229,28 +1230,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1586,7 +1587,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FEE8F3B717F5814D1E1A3DC14C4D1EF56C0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1603,7 +1604,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1620,7 +1621,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1637,7 +1638,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1654,7 +1655,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1671,7 +1672,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1688,7 +1689,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1705,7 +1706,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1722,7 +1723,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1739,19 +1740,308 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7F98FB5917694674D137AFFB78265441D7DC77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1768,7 +2058,313 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1785,12 +2381,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1802,12 +2398,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1819,12 +2415,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1836,415 +2432,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7F98FB5917694674D137AFFB78265441D7DC77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2261,182 +2449,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3510,13 +3528,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>80</xdr:row>
+          <xdr:row>81</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3572,13 +3590,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3634,13 +3652,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3696,13 +3714,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3758,13 +3776,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3820,13 +3838,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>88</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3882,13 +3900,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>88</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3944,13 +3962,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4006,13 +4024,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4068,13 +4086,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4130,13 +4148,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4192,13 +4210,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4254,13 +4272,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4316,13 +4334,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4378,13 +4396,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4440,13 +4458,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4502,13 +4520,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4564,13 +4582,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4626,13 +4644,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4688,13 +4706,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4750,13 +4768,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4812,13 +4830,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4874,13 +4892,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4936,13 +4954,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4998,13 +5016,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5060,13 +5078,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5122,13 +5140,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5184,13 +5202,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5246,13 +5264,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5308,13 +5326,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5370,13 +5388,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5432,13 +5450,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5494,13 +5512,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5556,13 +5574,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5609,6 +5627,63 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="466725" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1156" name="_ActiveXWrapper52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9389110C-DB69-4F2C-870E-B25553E16EF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5913,10 +5988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EABB98-6075-4E35-A5A1-323D3932C4A3}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114:I114"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6535,14 +6610,14 @@
       <c r="C58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="25" t="s">
         <v>115</v>
       </c>
@@ -6554,14 +6629,14 @@
       <c r="C59" s="23">
         <v>1000</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6571,14 +6646,14 @@
       <c r="C60" s="36">
         <v>1001</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
       <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -6588,14 +6663,14 @@
       <c r="C61" s="23">
         <v>1002</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6605,14 +6680,14 @@
       <c r="C62" s="36">
         <v>1003</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
       <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -6622,14 +6697,14 @@
       <c r="C63" s="23">
         <v>1004</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6639,14 +6714,14 @@
       <c r="C64" s="36">
         <v>1005</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
       <c r="J64" s="37"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -6656,14 +6731,14 @@
       <c r="C65" s="23">
         <v>1006</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6673,14 +6748,14 @@
       <c r="C66" s="36">
         <v>1007</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -6690,14 +6765,14 @@
       <c r="C67" s="23">
         <v>1008</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6707,14 +6782,14 @@
       <c r="C68" s="36">
         <v>1009</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
       <c r="J68" s="37"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -6724,14 +6799,14 @@
       <c r="C69" s="23">
         <v>1010</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6741,14 +6816,14 @@
       <c r="C70" s="36">
         <v>1011</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
       <c r="J70" s="37"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -6758,14 +6833,14 @@
       <c r="C71" s="23">
         <v>1012</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6775,14 +6850,14 @@
       <c r="C72" s="36">
         <v>1013</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
       <c r="J72" s="37"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -6792,14 +6867,14 @@
       <c r="C73" s="23">
         <v>1014</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6809,14 +6884,14 @@
       <c r="C74" s="36">
         <v>1015</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
       <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -6826,833 +6901,833 @@
       <c r="C75" s="23">
         <v>1016</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="26" t="s">
+      <c r="B76" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="23">
+        <v>1003</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="24" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="53" t="s">
+      <c r="D81" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="24" t="s">
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="s">
+    <row r="82" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C82" s="28">
         <v>2000</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="29" t="s">
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
+    <row r="83" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C83" s="40">
         <v>2001</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D83" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="41" t="s">
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="27" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C84" s="28">
         <v>2002</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D84" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="29" t="s">
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="39" t="s">
+    <row r="85" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C85" s="40">
         <v>2003</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D85" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="41" t="s">
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="27" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C86" s="28">
         <v>2004</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D86" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="29" t="s">
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="39" t="s">
+    <row r="87" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C87" s="40">
         <v>2005</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D87" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="41" t="s">
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C88" s="28">
         <v>2006</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="29" t="s">
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="39" t="s">
+    <row r="89" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C89" s="40">
         <v>2007</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D89" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="41" t="s">
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="27" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C90" s="28">
         <v>2008</v>
       </c>
-      <c r="D89" s="46" t="s">
+      <c r="D90" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="29" t="s">
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="39" t="s">
+    <row r="91" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="40">
+      <c r="C91" s="40">
         <v>2009</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D91" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="41" t="s">
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="27" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C92" s="28">
         <v>2010</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D92" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="29" t="s">
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="39" t="s">
+    <row r="93" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C93" s="40">
         <v>2011</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D93" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="41" t="s">
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="27" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C94" s="28">
         <v>2012</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D94" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="29" t="s">
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="39" t="s">
+    <row r="95" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C95" s="40">
         <v>2013</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D95" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="41" t="s">
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="27" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C96" s="28">
         <v>2014</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D96" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="29" t="s">
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="39" t="s">
+    <row r="97" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C97" s="40">
         <v>2015</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D97" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="41" t="s">
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="27" t="s">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C98" s="28">
         <v>2016</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D98" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="29" t="s">
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="39" t="s">
+    <row r="99" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C99" s="40">
         <v>2017</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D99" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="41" t="s">
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C100" s="28">
         <v>2018</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D100" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="29" t="s">
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="39" t="s">
+    <row r="101" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="40">
+      <c r="C101" s="40">
         <v>2019</v>
       </c>
-      <c r="D100" s="48" t="s">
+      <c r="D101" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="41" t="s">
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K100" s="38" t="s">
+      <c r="K101" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="27" t="s">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C102" s="28">
         <v>2020</v>
       </c>
-      <c r="D101" s="46" t="s">
+      <c r="D102" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="29" t="s">
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K102" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="39" t="s">
+    <row r="103" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="40">
+      <c r="C103" s="40">
         <v>2021</v>
       </c>
-      <c r="D102" s="48" t="s">
+      <c r="D103" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="41" t="s">
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K102" s="38" t="s">
+      <c r="K103" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="27" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C104" s="28">
         <v>2022</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D104" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="29" t="s">
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="39" t="s">
+    <row r="105" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C105" s="40">
         <v>2023</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D105" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="41" t="s">
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="27" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C106" s="28">
         <v>2024</v>
       </c>
-      <c r="D105" s="46" t="s">
+      <c r="D106" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="29" t="s">
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="39" t="s">
+    <row r="107" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="40">
+      <c r="C107" s="40">
         <v>2025</v>
       </c>
-      <c r="D106" s="48" t="s">
+      <c r="D107" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="41" t="s">
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="27" t="s">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C108" s="28">
         <v>2026</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D108" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="29" t="s">
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="39" t="s">
+    <row r="109" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="40">
+      <c r="C109" s="40">
         <v>2027</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D109" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="41" t="s">
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="27" t="s">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C110" s="28">
         <v>2028</v>
       </c>
-      <c r="D109" s="46" t="s">
+      <c r="D110" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="29" t="s">
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="39" t="s">
+    <row r="111" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C110" s="40">
+      <c r="C111" s="40">
         <v>2029</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D111" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="41" t="s">
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="27" t="s">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C112" s="28">
         <v>2030</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D112" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="29" t="s">
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K112" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="39" t="s">
+    <row r="113" spans="1:10" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42"/>
+      <c r="B113" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C113" s="40">
         <v>2031</v>
       </c>
-      <c r="D112" s="49" t="s">
+      <c r="D113" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="41" t="s">
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="27" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C114" s="28">
         <v>2032</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D114" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="29" t="s">
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="39" t="s">
+    <row r="115" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="40">
+      <c r="C115" s="40">
         <v>2033</v>
       </c>
-      <c r="D114" s="48" t="s">
+      <c r="D115" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="41" t="s">
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="27" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C116" s="28">
         <v>2034</v>
       </c>
-      <c r="D115" s="46" t="s">
+      <c r="D116" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="29" t="s">
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="39" t="s">
+    <row r="117" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C116" s="40">
+      <c r="C117" s="40">
         <v>2035</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D117" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="41" t="s">
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="27" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B118" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C118" s="28">
         <v>2036</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D118" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="29" t="s">
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="39" t="s">
+    <row r="119" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="40">
+      <c r="C119" s="40">
         <v>80</v>
       </c>
-      <c r="D118" s="48" t="s">
+      <c r="D119" s="47" t="s">
         <v>183</v>
-      </c>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C119" s="44">
-        <v>2037</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>184</v>
       </c>
       <c r="E119" s="47"/>
       <c r="F119" s="47"/>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
       <c r="I119" s="47"/>
-      <c r="J119" s="45" t="s">
+      <c r="J119" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" s="44">
+        <v>2037</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="27" t="s">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="28">
+      <c r="C121" s="28">
         <v>79</v>
       </c>
-      <c r="D120" s="46" t="s">
+      <c r="D121" s="46" t="s">
         <v>186</v>
-      </c>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="28">
-        <v>62</v>
-      </c>
-      <c r="D121" s="46" t="s">
-        <v>188</v>
       </c>
       <c r="E121" s="46"/>
       <c r="F121" s="46"/>
@@ -7663,15 +7738,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C122" s="28">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D122" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E122" s="46"/>
       <c r="F122" s="46"/>
@@ -7682,15 +7757,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="C123" s="28">
+        <v>91</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E123" s="46"/>
       <c r="F123" s="46"/>
@@ -7701,15 +7776,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C124" s="30">
-        <v>66</v>
+        <v>191</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E124" s="46"/>
       <c r="F124" s="46"/>
@@ -7720,15 +7795,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C125" s="30">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E125" s="46"/>
       <c r="F125" s="46"/>
@@ -7739,15 +7814,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C126" s="30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E126" s="46"/>
       <c r="F126" s="46"/>
@@ -7758,27 +7833,67 @@
         <v>182</v>
       </c>
     </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" s="30">
+        <v>77</v>
+      </c>
+      <c r="D127" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="65">
+  <mergeCells count="66">
+    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D122:I122"/>
     <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
     <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D83:I83"/>
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D85:I85"/>
     <mergeCell ref="D86:I86"/>
@@ -7789,49 +7904,29 @@
     <mergeCell ref="D91:I91"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D124:I124"/>
     <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D106:I106"/>
     <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
   </mergeCells>
-  <conditionalFormatting sqref="C81:C97 C99:C116">
+  <conditionalFormatting sqref="C82:C98 C100:C117">
     <cfRule type="duplicateValues" dxfId="30" priority="30"/>
     <cfRule type="duplicateValues" dxfId="29" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C72 C76">
+  <conditionalFormatting sqref="C59:C72 C77">
     <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F44 F46:F55">
@@ -7843,47 +7938,47 @@
   <conditionalFormatting sqref="B7:G55">
     <cfRule type="duplicateValues" dxfId="25" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
+  <conditionalFormatting sqref="C99">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
     <cfRule type="duplicateValues" dxfId="23" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
+  <conditionalFormatting sqref="C118">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C119">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="duplicateValues" dxfId="16" priority="16"/>
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
     <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
@@ -7893,7 +7988,7 @@
   <conditionalFormatting sqref="C74">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
+  <conditionalFormatting sqref="C75:C76">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7903,7 +7998,232 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId4" name="_ActiveXWrapper43">
+        <control shapeId="1156" r:id="rId4" name="_ActiveXWrapper52">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1156" r:id="rId4" name="_ActiveXWrapper52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1121" r:id="rId6" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1121" r:id="rId6" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1120" r:id="rId7" name="_ActiveXWrapper50">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1120" r:id="rId7" name="_ActiveXWrapper50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1119" r:id="rId8" name="_ActiveXWrapper49">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1119" r:id="rId8" name="_ActiveXWrapper49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1118" r:id="rId9" name="_ActiveXWrapper48">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1118" r:id="rId9" name="_ActiveXWrapper48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1117" r:id="rId10" name="_ActiveXWrapper47">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1117" r:id="rId10" name="_ActiveXWrapper47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1116" r:id="rId11" name="_ActiveXWrapper46">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1116" r:id="rId11" name="_ActiveXWrapper46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1114" r:id="rId12" name="_ActiveXWrapper45">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId12" name="_ActiveXWrapper45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId13" name="_ActiveXWrapper44">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId13" name="_ActiveXWrapper44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId14" name="_ActiveXWrapper42">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -7923,474 +8243,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1112" r:id="rId4" name="_ActiveXWrapper43"/>
+        <control shapeId="1111" r:id="rId14" name="_ActiveXWrapper42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId6" name="_ActiveXWrapper17">
+        <control shapeId="1110" r:id="rId15" name="_ActiveXWrapper41">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId6" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId7" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId7" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId8" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId8" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId9" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId9" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId10" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId10" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId11" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId11" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId12" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId12" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId13" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId13" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId14" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId14" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId15" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId15" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId16" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId16" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId17" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId17" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId18" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId18" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId19" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId19" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId20" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId20" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId21" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId21" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId22" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId22" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId24" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>80</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId24" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId25" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>81</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>109</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8398,24 +8268,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId25" name="_ActiveXWrapper19"/>
+        <control shapeId="1110" r:id="rId15" name="_ActiveXWrapper41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId26" name="_ActiveXWrapper20">
+        <control shapeId="1109" r:id="rId16" name="_ActiveXWrapper40">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>82</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8423,24 +8293,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId26" name="_ActiveXWrapper20"/>
+        <control shapeId="1109" r:id="rId16" name="_ActiveXWrapper40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId27" name="_ActiveXWrapper21">
+        <control shapeId="1108" r:id="rId17" name="_ActiveXWrapper39">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>106</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8448,24 +8318,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId27" name="_ActiveXWrapper21"/>
+        <control shapeId="1108" r:id="rId17" name="_ActiveXWrapper39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId28" name="_ActiveXWrapper22">
+        <control shapeId="1107" r:id="rId18" name="_ActiveXWrapper38">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>106</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8473,24 +8343,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId28" name="_ActiveXWrapper22"/>
+        <control shapeId="1107" r:id="rId18" name="_ActiveXWrapper38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId29" name="_ActiveXWrapper23">
+        <control shapeId="1106" r:id="rId19" name="_ActiveXWrapper37">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>104</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>88</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8498,24 +8368,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId29" name="_ActiveXWrapper23"/>
+        <control shapeId="1106" r:id="rId19" name="_ActiveXWrapper37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId30" name="_ActiveXWrapper24">
+        <control shapeId="1105" r:id="rId20" name="_ActiveXWrapper36">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>88</xdr:row>
+                <xdr:row>103</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>104</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8523,7 +8393,257 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId30" name="_ActiveXWrapper24"/>
+        <control shapeId="1105" r:id="rId20" name="_ActiveXWrapper36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId21" name="_ActiveXWrapper35">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId21" name="_ActiveXWrapper35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId22" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId22" name="_ActiveXWrapper34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId23" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId23" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId24" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId24" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId25" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId25" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId26" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId26" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId27" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId27" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId28" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId28" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId29" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId29" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId30" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId30" name="_ActiveXWrapper26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8534,13 +8654,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8553,19 +8673,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId32" name="_ActiveXWrapper26">
+        <control shapeId="1093" r:id="rId32" name="_ActiveXWrapper24">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>91</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8573,24 +8693,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId32" name="_ActiveXWrapper26"/>
+        <control shapeId="1093" r:id="rId32" name="_ActiveXWrapper24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId33" name="_ActiveXWrapper27">
+        <control shapeId="1092" r:id="rId33" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>91</xdr:row>
+                <xdr:row>88</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>92</xdr:row>
+                <xdr:row>89</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8598,187 +8718,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId33" name="_ActiveXWrapper27"/>
+        <control shapeId="1092" r:id="rId33" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId34" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId34" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId35" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId35" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId36" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId36" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId37" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId37" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId38" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId38" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId39" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId39" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId40" name="_ActiveXWrapper34">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId40" name="_ActiveXWrapper34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId41" name="_ActiveXWrapper35">
+        <control shapeId="1091" r:id="rId34" name="_ActiveXWrapper22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8798,24 +8743,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1104" r:id="rId41" name="_ActiveXWrapper35"/>
+        <control shapeId="1091" r:id="rId34" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId42" name="_ActiveXWrapper36">
+        <control shapeId="1090" r:id="rId35" name="_ActiveXWrapper21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>102</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8823,24 +8768,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1105" r:id="rId42" name="_ActiveXWrapper36"/>
+        <control shapeId="1090" r:id="rId35" name="_ActiveXWrapper21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId43" name="_ActiveXWrapper37">
+        <control shapeId="1089" r:id="rId36" name="_ActiveXWrapper20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>103</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>104</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8848,24 +8793,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1106" r:id="rId43" name="_ActiveXWrapper37"/>
+        <control shapeId="1089" r:id="rId36" name="_ActiveXWrapper20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId44" name="_ActiveXWrapper38">
+        <control shapeId="1088" r:id="rId37" name="_ActiveXWrapper19">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>104</xdr:row>
+                <xdr:row>82</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>83</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8873,112 +8818,462 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1107" r:id="rId44" name="_ActiveXWrapper38"/>
+        <control shapeId="1088" r:id="rId37" name="_ActiveXWrapper19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId45" name="_ActiveXWrapper39">
+        <control shapeId="1075" r:id="rId38" name="_ActiveXWrapper18">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>81</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1108" r:id="rId45" name="_ActiveXWrapper39"/>
+        <control shapeId="1075" r:id="rId38" name="_ActiveXWrapper18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId46" name="_ActiveXWrapper40">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1045" r:id="rId39" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1109" r:id="rId46" name="_ActiveXWrapper40"/>
+        <control shapeId="1045" r:id="rId39" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId47" name="_ActiveXWrapper41">
+        <control shapeId="1046" r:id="rId41" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1110" r:id="rId47" name="_ActiveXWrapper41"/>
+        <control shapeId="1046" r:id="rId41" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId48" name="_ActiveXWrapper42">
+        <control shapeId="1060" r:id="rId42" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1111" r:id="rId48" name="_ActiveXWrapper42"/>
+        <control shapeId="1060" r:id="rId42" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId49" name="_ActiveXWrapper44">
+        <control shapeId="1061" r:id="rId43" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId43" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId44" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId44" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId45" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId45" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId46" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId46" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId47" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId47" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId48" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId48" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId49" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId49" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId50" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId50" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId51" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId51" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId52" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId52" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId53" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId53" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId54" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId54" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId55" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId55" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId56" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId56" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId57" name="_ActiveXWrapper43">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8998,182 +9293,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1113" r:id="rId49" name="_ActiveXWrapper44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId50" name="_ActiveXWrapper45">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId50" name="_ActiveXWrapper45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1116" r:id="rId51" name="_ActiveXWrapper46">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1116" r:id="rId51" name="_ActiveXWrapper46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1117" r:id="rId52" name="_ActiveXWrapper47">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1117" r:id="rId52" name="_ActiveXWrapper47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1118" r:id="rId53" name="_ActiveXWrapper48">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1118" r:id="rId53" name="_ActiveXWrapper48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1119" r:id="rId54" name="_ActiveXWrapper49">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1119" r:id="rId54" name="_ActiveXWrapper49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1120" r:id="rId55" name="_ActiveXWrapper50">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1120" r:id="rId55" name="_ActiveXWrapper50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1121" r:id="rId56" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1121" r:id="rId56" name="_ActiveXWrapper51"/>
+        <control shapeId="1112" r:id="rId57" name="_ActiveXWrapper43"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/KODOWANIE KOMPONENTÓW.xlsx
+++ b/KODOWANIE KOMPONENTÓW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.miekos\source\repos\Komponenty_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AE17AD-E760-454E-ABF0-308C9A8B0CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADBA2D-06B9-4E23-B6FB-FCB0FEFB1986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="11985" windowHeight="15735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
+    <workbookView xWindow="3510" yWindow="2265" windowWidth="11985" windowHeight="15735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <comment ref="D75" authorId="0" shapeId="0" xr:uid="{B1E45097-8BD0-4F3B-9CFF-5A1074BC5E8C}">
       <text/>
     </comment>
-    <comment ref="D85" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
+    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
+    <comment ref="D87" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
+    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D89" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
+    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
       <text>
         <r>
           <rPr>
@@ -142,85 +142,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
+    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
       <text/>
     </comment>
-    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
+    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
       <text/>
     </comment>
-    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
+    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
       <text/>
     </comment>
-    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
+    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
       <text/>
     </comment>
-    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
+    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
       <text/>
     </comment>
-    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
+    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
       <text/>
     </comment>
-    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
+    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
       <text/>
     </comment>
-    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
+    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
       <text/>
     </comment>
-    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
+    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
       <text/>
     </comment>
-    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
+    <comment ref="D100" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
       <text/>
     </comment>
-    <comment ref="D100" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
+    <comment ref="D101" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
       <text/>
     </comment>
-    <comment ref="D104" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
+    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
       <text/>
     </comment>
-    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
+    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
       <text/>
     </comment>
-    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
+    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
       <text/>
     </comment>
-    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
+    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
       <text/>
     </comment>
-    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
+    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
       <text/>
     </comment>
-    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
+    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
       <text/>
     </comment>
-    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
+    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
       <text/>
     </comment>
-    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
+    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
       <text/>
     </comment>
-    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
+    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
       <text/>
     </comment>
-    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
+    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
       <text/>
     </comment>
-    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
+    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
       <text/>
     </comment>
-    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
+    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
       <text/>
     </comment>
-    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
+    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
       <text/>
     </comment>
-    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
+    <comment ref="D118" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
       <text/>
     </comment>
-    <comment ref="D118" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
+    <comment ref="D119" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
       <text/>
     </comment>
-    <comment ref="D120" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
+    <comment ref="D121" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
       <text/>
     </comment>
   </commentList>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
   <si>
     <t>KODOWANIE KOMPONENTÓW W TEKLI:</t>
   </si>
@@ -957,6 +957,12 @@
   </si>
   <si>
     <t>Tekla</t>
+  </si>
+  <si>
+    <t>Detal blachy końcowej</t>
+  </si>
+  <si>
+    <t>Blacha czołowa spawana</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1136,11 +1142,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1230,13 +1260,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,14 +1284,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,7 +1638,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FEE8F3B717F5814D1E1A3DC14C4D1EF56C0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16973A07E1BDA9149BF1A8FD180B59F6EC6021"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1604,7 +1655,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1621,7 +1672,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1638,7 +1689,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1655,7 +1706,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1672,7 +1723,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1689,7 +1740,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1706,7 +1757,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1723,7 +1774,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1740,7 +1791,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1757,13 +1808,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1774,7 +1825,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1791,7 +1842,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1808,7 +1859,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1825,7 +1876,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1842,7 +1893,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1859,7 +1910,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1876,7 +1927,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1893,7 +1944,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1927,7 +1978,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1944,7 +1995,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1961,7 +2012,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1978,7 +2029,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1995,7 +2046,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2012,7 +2063,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2029,7 +2080,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2046,7 +2097,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2063,13 +2114,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -2080,7 +2131,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2097,7 +2148,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2114,7 +2165,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2131,7 +2182,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2148,7 +2199,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2165,7 +2216,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2182,7 +2233,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2199,7 +2250,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2216,7 +2267,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2233,7 +2284,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2250,7 +2301,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2267,7 +2318,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2284,7 +2335,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2301,7 +2352,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2318,7 +2369,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2335,7 +2386,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2352,7 +2403,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2369,7 +2420,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2386,7 +2437,24 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="84936386E88097846588AFBE8E26E64F991F08"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FEE8F3B717F5814D1E1A3DC14C4D1EF56C0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2403,7 +2471,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2420,7 +2488,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="93CFC841F9D3C594AE69B3A7953DCD0C37B859"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2437,7 +2505,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2454,7 +2522,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3528,13 +3596,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>81</xdr:row>
+          <xdr:row>82</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3590,13 +3658,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3652,13 +3720,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3714,13 +3782,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3776,13 +3844,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3838,13 +3906,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>88</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3900,13 +3968,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3962,13 +4030,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4024,13 +4092,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4086,13 +4154,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4148,13 +4216,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4210,13 +4278,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4272,13 +4340,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4334,13 +4402,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4396,13 +4464,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4458,13 +4526,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4520,13 +4588,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4582,13 +4650,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4644,13 +4712,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4706,13 +4774,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4768,13 +4836,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4830,13 +4898,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4892,13 +4960,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4954,13 +5022,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5016,13 +5084,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5078,13 +5146,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5140,13 +5208,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5202,13 +5270,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5264,13 +5332,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5326,13 +5394,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5388,13 +5456,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5450,13 +5518,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5512,13 +5580,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5574,13 +5642,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5592,6 +5660,68 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1156" name="_ActiveXWrapper52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5642,13 +5772,13 @@
         <xdr:ext cx="466725" cy="180975"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1156" name="_ActiveXWrapper52" hidden="1">
+            <xdr:cNvPr id="1157" name="_ActiveXWrapper53" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1156"/>
+                  <a14:compatExt spid="_x0000_s1157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9389110C-DB69-4F2C-870E-B25553E16EF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193BC014-E172-4A7F-A6DF-63443E7B96F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5988,10 +6118,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EABB98-6075-4E35-A5A1-323D3932C4A3}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6610,14 +6740,14 @@
       <c r="C58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
       <c r="J58" s="25" t="s">
         <v>115</v>
       </c>
@@ -6629,14 +6759,14 @@
       <c r="C59" s="23">
         <v>1000</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6646,14 +6776,14 @@
       <c r="C60" s="36">
         <v>1001</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -6663,14 +6793,14 @@
       <c r="C61" s="23">
         <v>1002</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6680,14 +6810,14 @@
       <c r="C62" s="36">
         <v>1003</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -6697,14 +6827,14 @@
       <c r="C63" s="23">
         <v>1004</v>
       </c>
-      <c r="D63" s="49" t="s">
+      <c r="D63" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6714,1039 +6844,1041 @@
       <c r="C64" s="36">
         <v>1005</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
       <c r="J64" s="37"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="23">
         <v>1006</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="35" t="s">
         <v>209</v>
       </c>
       <c r="C66" s="36">
         <v>1007</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="37"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
         <v>214</v>
       </c>
       <c r="C67" s="23">
         <v>1008</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C68" s="36">
         <v>1009</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="37"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" s="22" t="s">
         <v>218</v>
       </c>
       <c r="C69" s="23">
         <v>1010</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>220</v>
       </c>
       <c r="C70" s="36">
         <v>1011</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
       <c r="J70" s="37"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="22" t="s">
         <v>222</v>
       </c>
       <c r="C71" s="23">
         <v>1012</v>
       </c>
-      <c r="D71" s="49" t="s">
+      <c r="D71" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="35" t="s">
         <v>215</v>
       </c>
       <c r="C72" s="36">
         <v>1013</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
       <c r="J72" s="37"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="22" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="23">
         <v>1014</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C74" s="36">
         <v>1015</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
       <c r="J74" s="37"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
         <v>228</v>
       </c>
       <c r="C75" s="23">
         <v>1016</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" s="60">
+        <v>1002</v>
+      </c>
+      <c r="D76" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C77" s="60">
         <v>1003</v>
       </c>
-      <c r="D76" s="49" t="s">
+      <c r="D77" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="4" t="s">
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="55" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="26" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="24" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C82" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D82" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="24" t="s">
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
+    <row r="83" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C83" s="28">
         <v>2000</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D83" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="29" t="s">
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39" t="s">
+    <row r="84" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="40">
+      <c r="C84" s="40">
         <v>2001</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D84" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="41" t="s">
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="27" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C85" s="28">
         <v>2002</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D85" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="29" t="s">
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="39" t="s">
+    <row r="86" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C86" s="40">
         <v>2003</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D86" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="41" t="s">
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="27" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C87" s="28">
         <v>2004</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="46"/>
-      <c r="J86" s="29" t="s">
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="39" t="s">
+    <row r="88" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C88" s="40">
         <v>2005</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D88" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="41" t="s">
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="27" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C89" s="28">
         <v>2006</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="D89" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="29" t="s">
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="39" t="s">
+    <row r="90" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C90" s="40">
         <v>2007</v>
       </c>
-      <c r="D89" s="47" t="s">
+      <c r="D90" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="41" t="s">
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C91" s="28">
         <v>2008</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D91" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="29" t="s">
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="39" t="s">
+    <row r="92" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C92" s="40">
         <v>2009</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D92" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="41" t="s">
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="27" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C93" s="28">
         <v>2010</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D93" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="29" t="s">
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="39" t="s">
+    <row r="94" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C94" s="40">
         <v>2011</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="D94" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="41" t="s">
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="27" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C95" s="28">
         <v>2012</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D95" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="29" t="s">
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="39" t="s">
+    <row r="96" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C96" s="40">
         <v>2013</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D96" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="41" t="s">
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="27" t="s">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C97" s="28">
         <v>2014</v>
       </c>
-      <c r="D96" s="46" t="s">
+      <c r="D97" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="29" t="s">
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="39" t="s">
+    <row r="98" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C98" s="40">
         <v>2015</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D98" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="41" t="s">
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="27" t="s">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C99" s="28">
         <v>2016</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D99" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="46"/>
-      <c r="J98" s="29" t="s">
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="39" t="s">
+    <row r="100" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="40">
+      <c r="C100" s="40">
         <v>2017</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D100" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="41" t="s">
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="27" t="s">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="28">
+      <c r="C101" s="28">
         <v>2018</v>
       </c>
-      <c r="D100" s="46" t="s">
+      <c r="D101" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="46"/>
-      <c r="J100" s="29" t="s">
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="39" t="s">
+    <row r="102" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="40">
+      <c r="C102" s="40">
         <v>2019</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D102" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="41" t="s">
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K101" s="38" t="s">
+      <c r="K102" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="27" t="s">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="28">
+      <c r="C103" s="28">
         <v>2020</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D103" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
-      <c r="I102" s="46"/>
-      <c r="J102" s="29" t="s">
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K103" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="39" t="s">
+    <row r="104" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="40">
+      <c r="C104" s="40">
         <v>2021</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D104" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="41" t="s">
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K103" s="38" t="s">
+      <c r="K104" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="27" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C104" s="28">
+      <c r="C105" s="28">
         <v>2022</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D105" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="29" t="s">
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="39" t="s">
+    <row r="106" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C105" s="40">
+      <c r="C106" s="40">
         <v>2023</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="D106" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="41" t="s">
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="48"/>
+      <c r="J106" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="27" t="s">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="28">
+      <c r="C107" s="28">
         <v>2024</v>
       </c>
-      <c r="D106" s="46" t="s">
+      <c r="D107" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
-      <c r="I106" s="46"/>
-      <c r="J106" s="29" t="s">
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="39" t="s">
+    <row r="108" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C107" s="40">
+      <c r="C108" s="40">
         <v>2025</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D108" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="41" t="s">
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="27" t="s">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="28">
+      <c r="C109" s="28">
         <v>2026</v>
       </c>
-      <c r="D108" s="46" t="s">
+      <c r="D109" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E108" s="46"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="29" t="s">
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
+    <row r="110" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="40">
+      <c r="C110" s="40">
         <v>2027</v>
       </c>
-      <c r="D109" s="47" t="s">
+      <c r="D110" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="41" t="s">
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="27" t="s">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="28">
+      <c r="C111" s="28">
         <v>2028</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D111" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="E110" s="46"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
-      <c r="I110" s="46"/>
-      <c r="J110" s="29" t="s">
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="39" t="s">
+    <row r="112" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="40">
+      <c r="C112" s="40">
         <v>2029</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D112" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
-      <c r="I111" s="47"/>
-      <c r="J111" s="41" t="s">
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="27" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="28">
+      <c r="C113" s="28">
         <v>2030</v>
       </c>
-      <c r="D112" s="46" t="s">
+      <c r="D113" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E112" s="46"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="46"/>
-      <c r="J112" s="29" t="s">
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K113" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="39" t="s">
+    <row r="114" spans="1:11" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42"/>
+      <c r="B114" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C113" s="40">
+      <c r="C114" s="40">
         <v>2031</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D114" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="E113" s="54"/>
-      <c r="F113" s="54"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="41" t="s">
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="27" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C115" s="28">
         <v>2032</v>
       </c>
-      <c r="D114" s="46" t="s">
+      <c r="D115" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
-      <c r="J114" s="29" t="s">
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="39" t="s">
+    <row r="116" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C115" s="40">
+      <c r="C116" s="40">
         <v>2033</v>
       </c>
-      <c r="D115" s="47" t="s">
+      <c r="D116" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
-      <c r="I115" s="47"/>
-      <c r="J115" s="41" t="s">
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="48"/>
+      <c r="J116" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="27" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C117" s="28">
         <v>2034</v>
       </c>
-      <c r="D116" s="46" t="s">
+      <c r="D117" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="29" t="s">
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="39" t="s">
+    <row r="118" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C117" s="40">
+      <c r="C118" s="40">
         <v>2035</v>
       </c>
-      <c r="D117" s="47" t="s">
+      <c r="D118" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="41" t="s">
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C119" s="28">
         <v>2036</v>
       </c>
-      <c r="D118" s="46" t="s">
+      <c r="D119" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="E118" s="46"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="46"/>
-      <c r="I118" s="46"/>
-      <c r="J118" s="29" t="s">
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="39" t="s">
+    <row r="120" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C119" s="40">
+      <c r="C120" s="40">
         <v>80</v>
       </c>
-      <c r="D119" s="47" t="s">
+      <c r="D120" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
-      <c r="I119" s="47"/>
-      <c r="J119" s="41" t="s">
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="43" t="s">
+    <row r="121" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C120" s="44">
+      <c r="C121" s="44">
         <v>2037</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="D121" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="45" t="s">
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="27" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C121" s="28">
+      <c r="C122" s="28">
         <v>79</v>
       </c>
-      <c r="D121" s="46" t="s">
+      <c r="D122" s="46" t="s">
         <v>186</v>
-      </c>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C122" s="28">
-        <v>62</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>188</v>
       </c>
       <c r="E122" s="46"/>
       <c r="F122" s="46"/>
@@ -7757,15 +7889,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C123" s="28">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E123" s="46"/>
       <c r="F123" s="46"/>
@@ -7776,15 +7908,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="C124" s="28">
+        <v>91</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E124" s="46"/>
       <c r="F124" s="46"/>
@@ -7795,15 +7927,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="30">
-        <v>66</v>
+        <v>191</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>192</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E125" s="46"/>
       <c r="F125" s="46"/>
@@ -7814,15 +7946,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C126" s="30">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D126" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E126" s="46"/>
       <c r="F126" s="46"/>
@@ -7833,15 +7965,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C127" s="30">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D127" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E127" s="46"/>
       <c r="F127" s="46"/>
@@ -7852,49 +7984,49 @@
         <v>182</v>
       </c>
     </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="30">
+        <v>77</v>
+      </c>
+      <c r="D128" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="46"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A76:J77">
+    <sortCondition ref="C76:C77"/>
+  </sortState>
   <dataConsolidate/>
-  <mergeCells count="66">
+  <mergeCells count="67">
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D125:I125"/>
     <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="D107:I107"/>
     <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D96:I96"/>
     <mergeCell ref="D85:I85"/>
     <mergeCell ref="D86:I86"/>
     <mergeCell ref="D87:I87"/>
@@ -7905,28 +8037,51 @@
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="D93:I93"/>
     <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D127:I127"/>
+    <mergeCell ref="D128:I128"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D123:I123"/>
     <mergeCell ref="D124:I124"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="D107:I107"/>
   </mergeCells>
-  <conditionalFormatting sqref="C82:C98 C100:C117">
+  <conditionalFormatting sqref="C83:C99 C101:C118">
     <cfRule type="duplicateValues" dxfId="30" priority="30"/>
     <cfRule type="duplicateValues" dxfId="29" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C72 C77">
+  <conditionalFormatting sqref="C59:C72 C78">
     <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F44 F46:F55">
@@ -7938,47 +8093,47 @@
   <conditionalFormatting sqref="B7:G55">
     <cfRule type="duplicateValues" dxfId="25" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
+  <conditionalFormatting sqref="C100">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
     <cfRule type="duplicateValues" dxfId="23" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C119">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="duplicateValues" dxfId="16" priority="16"/>
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
     <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C128">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
@@ -7988,7 +8143,7 @@
   <conditionalFormatting sqref="C74">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C76">
+  <conditionalFormatting sqref="C75:C77">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7998,7 +8153,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1156" r:id="rId4" name="_ActiveXWrapper52">
+        <control shapeId="1157" r:id="rId4" name="_ActiveXWrapper53">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8018,24 +8173,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1156" r:id="rId4" name="_ActiveXWrapper52"/>
+        <control shapeId="1157" r:id="rId4" name="_ActiveXWrapper53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1121" r:id="rId6" name="_ActiveXWrapper51">
+        <control shapeId="1112" r:id="rId6" name="_ActiveXWrapper43">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>119</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>120</xdr:row>
+                <xdr:row>112</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8043,12 +8198,1187 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1121" r:id="rId6" name="_ActiveXWrapper51"/>
+        <control shapeId="1112" r:id="rId6" name="_ActiveXWrapper43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1120" r:id="rId7" name="_ActiveXWrapper50">
+        <control shapeId="1074" r:id="rId7" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId7" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId8" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId8" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId9" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId9" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId10" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId10" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId11" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId11" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId12" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId12" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId13" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId13" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId14" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId14" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId15" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId15" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId16" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId16" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId17" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId17" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId18" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId18" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId19" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId19" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId20" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId20" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId21" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId21" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId22" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId22" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId23" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId23" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId25" name="_ActiveXWrapper18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>82</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId25" name="_ActiveXWrapper18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1088" r:id="rId26" name="_ActiveXWrapper19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1088" r:id="rId26" name="_ActiveXWrapper19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1089" r:id="rId27" name="_ActiveXWrapper20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1089" r:id="rId27" name="_ActiveXWrapper20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1090" r:id="rId28" name="_ActiveXWrapper21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1090" r:id="rId28" name="_ActiveXWrapper21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1091" r:id="rId29" name="_ActiveXWrapper22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>86</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1091" r:id="rId29" name="_ActiveXWrapper22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1092" r:id="rId30" name="_ActiveXWrapper23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1092" r:id="rId30" name="_ActiveXWrapper23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>90</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1094" r:id="rId32" name="_ActiveXWrapper25">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>91</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1094" r:id="rId32" name="_ActiveXWrapper25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId33" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>92</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId33" name="_ActiveXWrapper26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId34" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId34" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId35" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId35" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId36" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId36" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId37" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId37" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId38" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId38" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId39" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId39" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId40" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId40" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId41" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId41" name="_ActiveXWrapper34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId42" name="_ActiveXWrapper35">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>87</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId42" name="_ActiveXWrapper35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1105" r:id="rId43" name="_ActiveXWrapper36">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1105" r:id="rId43" name="_ActiveXWrapper36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1106" r:id="rId44" name="_ActiveXWrapper37">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1106" r:id="rId44" name="_ActiveXWrapper37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1107" r:id="rId45" name="_ActiveXWrapper38">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>106</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1107" r:id="rId45" name="_ActiveXWrapper38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1108" r:id="rId46" name="_ActiveXWrapper39">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>107</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1108" r:id="rId46" name="_ActiveXWrapper39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1109" r:id="rId47" name="_ActiveXWrapper40">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1109" r:id="rId47" name="_ActiveXWrapper40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1110" r:id="rId48" name="_ActiveXWrapper41">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>109</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1110" r:id="rId48" name="_ActiveXWrapper41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId49" name="_ActiveXWrapper42">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>110</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>111</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1111" r:id="rId49" name="_ActiveXWrapper42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId50" name="_ActiveXWrapper44">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>112</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId50" name="_ActiveXWrapper44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1114" r:id="rId51" name="_ActiveXWrapper45">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId51" name="_ActiveXWrapper45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1116" r:id="rId52" name="_ActiveXWrapper46">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1116" r:id="rId52" name="_ActiveXWrapper46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1117" r:id="rId53" name="_ActiveXWrapper47">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1117" r:id="rId53" name="_ActiveXWrapper47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1118" r:id="rId54" name="_ActiveXWrapper48">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1118" r:id="rId54" name="_ActiveXWrapper48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1119" r:id="rId55" name="_ActiveXWrapper49">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8068,24 +9398,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1120" r:id="rId7" name="_ActiveXWrapper50"/>
+        <control shapeId="1119" r:id="rId55" name="_ActiveXWrapper49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1119" r:id="rId8" name="_ActiveXWrapper49">
+        <control shapeId="1120" r:id="rId56" name="_ActiveXWrapper50">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>116</xdr:row>
+                <xdr:row>118</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>117</xdr:row>
+                <xdr:row>119</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8093,24 +9423,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1119" r:id="rId8" name="_ActiveXWrapper49"/>
+        <control shapeId="1120" r:id="rId56" name="_ActiveXWrapper50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1118" r:id="rId9" name="_ActiveXWrapper48">
+        <control shapeId="1121" r:id="rId57" name="_ActiveXWrapper51">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>115</xdr:row>
+                <xdr:row>120</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>116</xdr:row>
+                <xdr:row>121</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8118,749 +9448,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1118" r:id="rId9" name="_ActiveXWrapper48"/>
+        <control shapeId="1121" r:id="rId57" name="_ActiveXWrapper51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1117" r:id="rId10" name="_ActiveXWrapper47">
+        <control shapeId="1156" r:id="rId58" name="_ActiveXWrapper52">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1117" r:id="rId10" name="_ActiveXWrapper47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1116" r:id="rId11" name="_ActiveXWrapper46">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1116" r:id="rId11" name="_ActiveXWrapper46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId12" name="_ActiveXWrapper45">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId12" name="_ActiveXWrapper45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId13" name="_ActiveXWrapper44">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>112</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1113" r:id="rId13" name="_ActiveXWrapper44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId14" name="_ActiveXWrapper42">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1111" r:id="rId14" name="_ActiveXWrapper42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId15" name="_ActiveXWrapper41">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1110" r:id="rId15" name="_ActiveXWrapper41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId16" name="_ActiveXWrapper40">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1109" r:id="rId16" name="_ActiveXWrapper40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId17" name="_ActiveXWrapper39">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1108" r:id="rId17" name="_ActiveXWrapper39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId18" name="_ActiveXWrapper38">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1107" r:id="rId18" name="_ActiveXWrapper38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId19" name="_ActiveXWrapper37">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>105</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1106" r:id="rId19" name="_ActiveXWrapper37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId20" name="_ActiveXWrapper36">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>104</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1105" r:id="rId20" name="_ActiveXWrapper36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId21" name="_ActiveXWrapper35">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>87</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1104" r:id="rId21" name="_ActiveXWrapper35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId22" name="_ActiveXWrapper34">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId22" name="_ActiveXWrapper34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId23" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId23" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId24" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId24" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId25" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId25" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId26" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId26" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId27" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId27" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId28" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId28" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId29" name="_ActiveXWrapper27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1096" r:id="rId29" name="_ActiveXWrapper27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId30" name="_ActiveXWrapper26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>92</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1095" r:id="rId30" name="_ActiveXWrapper26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1094" r:id="rId31" name="_ActiveXWrapper25">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>91</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1094" r:id="rId31" name="_ActiveXWrapper25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId32" name="_ActiveXWrapper24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1093" r:id="rId32" name="_ActiveXWrapper24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId33" name="_ActiveXWrapper23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>89</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1092" r:id="rId33" name="_ActiveXWrapper23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId34" name="_ActiveXWrapper22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>86</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1091" r:id="rId34" name="_ActiveXWrapper22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId35" name="_ActiveXWrapper21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1090" r:id="rId35" name="_ActiveXWrapper21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId36" name="_ActiveXWrapper20">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1089" r:id="rId36" name="_ActiveXWrapper20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId37" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1088" r:id="rId37" name="_ActiveXWrapper19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId38" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId38" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId39" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId40">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
                 <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
@@ -8868,432 +9473,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId39" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId41" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId41" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId42" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId42" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId43" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId43" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId44" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId44" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId45" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId45" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId46" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId46" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId47" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId47" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId48" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId48" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId49" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId49" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId50" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId50" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId51" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId51" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId52" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId52" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId53" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId53" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId54" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId54" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId55" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId55" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId56" name="_ActiveXWrapper17">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId56" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId57" name="_ActiveXWrapper43">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1112" r:id="rId57" name="_ActiveXWrapper43"/>
+        <control shapeId="1156" r:id="rId58" name="_ActiveXWrapper52"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/KODOWANIE KOMPONENTÓW.xlsx
+++ b/KODOWANIE KOMPONENTÓW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.miekos\source\repos\Komponenty_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ADBA2D-06B9-4E23-B6FB-FCB0FEFB1986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BA0D9D-96A2-4BD5-8D06-EEE9D7B97D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2265" windowWidth="11985" windowHeight="15735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="11985" windowHeight="15735" xr2:uid="{BA78C288-5A8E-4DDC-8196-6FEBACB469B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <comment ref="D75" authorId="0" shapeId="0" xr:uid="{B1E45097-8BD0-4F3B-9CFF-5A1074BC5E8C}">
       <text/>
     </comment>
-    <comment ref="D86" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
+    <comment ref="D87" authorId="1" shapeId="0" xr:uid="{11FDC535-6EF3-481C-B4ED-7FBEDC909E7E}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
+    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{F1BD8894-E417-439C-B78B-CF4CCF576D55}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
+    <comment ref="D89" authorId="1" shapeId="0" xr:uid="{26722517-C64B-4CCA-A20C-AA6E133E2D70}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
+    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{14609A9A-7503-42A6-BDAC-C4E04C59C8EE}">
       <text>
         <r>
           <rPr>
@@ -142,85 +142,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="D91" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
+    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{DF2790F3-10D1-4165-9556-84F3EF8CCA55}">
       <text/>
     </comment>
-    <comment ref="D92" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
+    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{6839212B-C580-4BB7-B947-39B790434D97}">
       <text/>
     </comment>
-    <comment ref="D93" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
+    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{45381AE0-8346-4CA8-980F-7394326F3CD7}">
       <text/>
     </comment>
-    <comment ref="D94" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
+    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{90C68678-EFE2-4AA4-B3A1-EA5FE8158B0C}">
       <text/>
     </comment>
-    <comment ref="D95" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
+    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{8B5CC955-AE6A-4DF8-9C43-5A3D8290D5F7}">
       <text/>
     </comment>
-    <comment ref="D96" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
+    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{F73E1FA4-4E87-4596-A96B-5FCAD5A2AB5E}">
       <text/>
     </comment>
-    <comment ref="D97" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
+    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{AAD0667B-CBA0-4F51-8AB9-34825E29D0C6}">
       <text/>
     </comment>
-    <comment ref="D98" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
+    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{72126B26-4789-4E8F-97CF-FE1A7137184D}">
       <text/>
     </comment>
-    <comment ref="D99" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
+    <comment ref="D100" authorId="1" shapeId="0" xr:uid="{59880402-E07A-44C6-9651-6E253F10A937}">
       <text/>
     </comment>
-    <comment ref="D100" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
+    <comment ref="D101" authorId="1" shapeId="0" xr:uid="{3F418503-6F17-480B-A893-E97AAEC92E5E}">
       <text/>
     </comment>
-    <comment ref="D101" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
+    <comment ref="D102" authorId="1" shapeId="0" xr:uid="{94128828-CC01-48C5-B534-E0D7AD40BA10}">
       <text/>
     </comment>
-    <comment ref="D105" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
+    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{F69AB199-175C-49A2-A35E-F1958E4026C7}">
       <text/>
     </comment>
-    <comment ref="D106" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
+    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{91E9BCDB-F89E-4BA0-BF31-98DE11BDCE5E}">
       <text/>
     </comment>
-    <comment ref="D107" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
+    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{371DC88C-F56B-4F66-B60E-4D3F380E53CC}">
       <text/>
     </comment>
-    <comment ref="D108" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
+    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{C1ABCDEC-146D-4BCD-B3A1-F58929EB6917}">
       <text/>
     </comment>
-    <comment ref="D109" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
+    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{268D43EC-DBDC-402D-8307-82A7E912AF36}">
       <text/>
     </comment>
-    <comment ref="D110" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
+    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{86B3506D-A3F2-462C-A6E5-B67B46E52173}">
       <text/>
     </comment>
-    <comment ref="D111" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
+    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{6480DBD7-6E5E-48C2-95CB-9E2283F0DA3F}">
       <text/>
     </comment>
-    <comment ref="D112" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
+    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{0F0184A6-BEF6-4DB5-94FE-CFA4B31DC970}">
       <text/>
     </comment>
-    <comment ref="D113" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
+    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{C8DDC3E2-9BE4-41FF-B642-EA4844D281BD}">
       <text/>
     </comment>
-    <comment ref="D114" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
+    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{AF244C00-45D4-4193-A9AB-905B62B4CE8A}">
       <text/>
     </comment>
-    <comment ref="D115" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
+    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{F355CA4F-8F15-43A8-8D6F-2673A64C6011}">
       <text/>
     </comment>
-    <comment ref="D116" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
+    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{E93DF2EA-0A58-470E-B30B-3D37B617E8F7}">
       <text/>
     </comment>
-    <comment ref="D117" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
+    <comment ref="D118" authorId="1" shapeId="0" xr:uid="{8F271B19-1802-4C21-BE41-30A04B911E48}">
       <text/>
     </comment>
-    <comment ref="D118" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
+    <comment ref="D119" authorId="1" shapeId="0" xr:uid="{EFF21D8F-91F8-4915-B60E-80DB56A15961}">
       <text/>
     </comment>
-    <comment ref="D119" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
+    <comment ref="D120" authorId="1" shapeId="0" xr:uid="{0AC0FDD3-7089-448A-BAA5-32EA61E509CE}">
       <text/>
     </comment>
-    <comment ref="D121" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
+    <comment ref="D122" authorId="1" shapeId="0" xr:uid="{4EBC80BA-00FE-4E23-9363-7FD1B0C68531}">
       <text/>
     </comment>
   </commentList>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="236">
   <si>
     <t>KODOWANIE KOMPONENTÓW W TEKLI:</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>Blacha czołowa spawana</t>
+  </si>
+  <si>
+    <t>Aplikacja do automatycznego łączenia elementów śrubami</t>
   </si>
 </sst>
 </file>
@@ -1258,33 +1261,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1296,14 +1281,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,7 +1641,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="16973A07E1BDA9149BF1A8FD180B59F6EC6021"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1A5F0A1171748014251181F6113F072B0C1D31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1655,7 +1658,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1672,7 +1675,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1689,7 +1692,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1706,7 +1709,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1723,7 +1726,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1740,7 +1743,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1757,7 +1760,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1774,7 +1777,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1791,7 +1794,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1808,6 +1811,329 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FEE8F3B717F5814D1E1A3DC14C4D1EF56C0B1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7F98FB5917694674D137AFFB78265441D7DC77"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="24F89F1BC2C4D3245972A06E2A56E86223B082"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -1820,7 +2146,313 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EB08E3DE28AEB246B9280EE2D04335EE19682"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3F981613D37167348C43AEE7361EEF328C1E13"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="32F50B3273C83534E4239B9D33422246272B33"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="323F5705D30F503423D38C5F31399CC0A35A03"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3BB4DA5DC35315349E53B9453222A0FDE1AD53"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="433AB47044F6E2446F648B36448B51A774CC04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="455985A494FFAF442844B4AF40B32BF55227F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4FF7075DA4B6CC4497B4A3084882D52131D074"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A34A85F1482DB444884B8354BCC2BA70677F4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1837,12 +2469,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5752D525656E075493759B625580BC0911EE35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="16973A07E1BDA9149BF1A8FD180B59F6EC6021"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1854,12 +2486,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6760159A06FE3F6423C6B62F6ED7A84D0D24B6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1871,12 +2503,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="600EEC785697D864BBB6A8BD69FA5B5B621F26"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1888,449 +2520,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="61504A838635EE6434968CD36555930A9E9CA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6103274A96218A6404F6AA2E65414A3BEDA906"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F851B16769A2D64A236A30F67B9DFAC7E9EA6"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6F741BB6665A7C646106A38A6B4D612EC5F786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7F98FB5917694674D137AFFB78265441D7DC77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D88D850709C37441A78A7C7E3F95AC091C07"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7D7B2C9CD75A7974BDC796097A2ED93E0F1F77"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FF8DA5A65F764548505A875505B49449B78C5"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="72E800D3F713AF747F079791713E9267E14327"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="74D56423D7A22B742347BCB4791178B60850A7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="798CA8C3B7C0C57413F7A1E776B7BB057B5E07"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="70068CD5077A1F74BC37B41F7BF65AB40E1E67"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7262A3A4C766C37496B7A36670E2F1612A8B37"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7A6EFD2BD79CB074D4F79A0F71B1E3930ECC87"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7303ED3767712174BB57AFBA7BB92242C605A7"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="85C580D7E881DB84471883378BE5886D8BC6A8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="800BD8E158826284C9788A7F8A07754300A428"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="83B55834A8655A840FC8BBB48CB72052C5B1D8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4A6DA92EA40A3C44B17482304CEE5895B5D064"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="81BEFC9E68BCAF844D288A198142A5B0169798"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="834FF52F48C5BF84609899C087D9683CAAB5D8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8CCDE18BB89E0084B598B2918406F3F94A5768"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8260CE84987FFC847A18B53A8EBE273C12F9F8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="841B845F183E7384A0F8A32580F94161979FE8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8D8765CA3833B8843028AE5F8103D4EBC3D0C8"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -2347,182 +2537,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9907F8F09908C9944F89BCF7926E22F486DB09"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B64A41C19FBC294B609ADE19C8E58C74AFB19"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4CD14ED074F47B44917489984B9CC237434EB4"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="97BA70DC291F6994F5F997F39602445E89EB49"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9B964B5C89D73994D9A9A8039DD30848FF3589"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9BD201EEA9B525944E29A4D39058D171DA4959"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FEE8F3B717F5814D1E1A3DC14C4D1EF56C0B1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4C035AF4C459AE443D34A58B4D58AAB1AC6D24"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="46E265EC64D53C4482C49C224E870DC77D3324"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DEEC2C3D4D25F444A849FA240408DD9F6A624"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="1296"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="503"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="431A69E1542802440B74944C45A243F3522F04"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="918094A7292B85940F99AB17946E4DB2B227E9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -3596,13 +3616,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>82</xdr:row>
+          <xdr:row>83</xdr:row>
           <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3658,13 +3678,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>84</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3720,13 +3740,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>84</xdr:row>
+          <xdr:row>85</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3782,13 +3802,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3844,13 +3864,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>86</xdr:row>
+          <xdr:row>87</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3906,13 +3926,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>89</xdr:row>
+          <xdr:row>90</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3968,13 +3988,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>90</xdr:row>
+          <xdr:row>91</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4030,13 +4050,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4092,13 +4112,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>92</xdr:row>
+          <xdr:row>93</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4154,13 +4174,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>93</xdr:row>
+          <xdr:row>94</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4216,13 +4236,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>94</xdr:row>
+          <xdr:row>95</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4278,13 +4298,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4340,13 +4360,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4402,13 +4422,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4464,13 +4484,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4526,13 +4546,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4588,13 +4608,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4650,13 +4670,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>88</xdr:row>
+          <xdr:row>89</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4712,13 +4732,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4774,13 +4794,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4836,13 +4856,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4898,13 +4918,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4960,13 +4980,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5022,13 +5042,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5084,13 +5104,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5146,13 +5166,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5208,13 +5228,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5270,13 +5290,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5332,13 +5352,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5394,13 +5414,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5456,13 +5476,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5518,13 +5538,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5580,13 +5600,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5642,13 +5662,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5762,14 +5782,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="466725" cy="180975"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1157" name="_ActiveXWrapper53" hidden="1">
@@ -5778,7 +5803,64 @@
                   <a14:compatExt spid="_x0000_s1157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193BC014-E172-4A7F-A6DF-63443E7B96F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="466725" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1158" name="_ActiveXWrapper54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC9C94F-D029-4776-A006-826057634DF0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6118,10 +6200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EABB98-6075-4E35-A5A1-323D3932C4A3}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,14 +6822,14 @@
       <c r="C58" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
       <c r="J58" s="25" t="s">
         <v>115</v>
       </c>
@@ -6759,14 +6841,14 @@
       <c r="C59" s="23">
         <v>1000</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6776,14 +6858,14 @@
       <c r="C60" s="36">
         <v>1001</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
       <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -6793,14 +6875,14 @@
       <c r="C61" s="23">
         <v>1002</v>
       </c>
-      <c r="D61" s="50" t="s">
+      <c r="D61" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6810,14 +6892,14 @@
       <c r="C62" s="36">
         <v>1003</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
       <c r="J62" s="37"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -6827,14 +6909,14 @@
       <c r="C63" s="23">
         <v>1004</v>
       </c>
-      <c r="D63" s="50" t="s">
+      <c r="D63" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6844,14 +6926,14 @@
       <c r="C64" s="36">
         <v>1005</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
       <c r="J64" s="37"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -6861,14 +6943,14 @@
       <c r="C65" s="23">
         <v>1006</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6878,14 +6960,14 @@
       <c r="C66" s="36">
         <v>1007</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
       <c r="J66" s="37"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6895,14 +6977,14 @@
       <c r="C67" s="23">
         <v>1008</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="56"/>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6912,14 +6994,14 @@
       <c r="C68" s="36">
         <v>1009</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
       <c r="J68" s="37"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6929,14 +7011,14 @@
       <c r="C69" s="23">
         <v>1010</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6946,14 +7028,14 @@
       <c r="C70" s="36">
         <v>1011</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
       <c r="J70" s="37"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -6963,14 +7045,14 @@
       <c r="C71" s="23">
         <v>1012</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -6980,14 +7062,14 @@
       <c r="C72" s="36">
         <v>1013</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
       <c r="J72" s="37"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -6997,14 +7079,14 @@
       <c r="C73" s="23">
         <v>1014</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -7014,14 +7096,14 @@
       <c r="C74" s="36">
         <v>1015</v>
       </c>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
       <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -7031,955 +7113,950 @@
       <c r="C75" s="23">
         <v>1016</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="59" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C76" s="60">
+      <c r="C76" s="48">
         <v>1002</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="55" t="s">
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="49"/>
+      <c r="B77" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="60">
+      <c r="C77" s="48">
         <v>1003</v>
       </c>
-      <c r="D77" s="56" t="s">
+      <c r="D77" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="55" t="s">
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="46" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="26" t="s">
+    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="49"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D83" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="24" t="s">
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="27" t="s">
+    <row r="84" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C84" s="28">
         <v>2000</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D84" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="29" t="s">
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
+      <c r="I84" s="53"/>
+      <c r="J84" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="39" t="s">
+    <row r="85" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C85" s="40">
         <v>2001</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D85" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="41" t="s">
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="27" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="28">
+      <c r="C86" s="28">
         <v>2002</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D86" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="29" t="s">
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="39" t="s">
+    <row r="87" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C87" s="40">
         <v>2003</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D87" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="41" t="s">
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C88" s="28">
         <v>2004</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="46"/>
-      <c r="J87" s="29" t="s">
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="39" t="s">
+    <row r="89" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C89" s="40">
         <v>2005</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D89" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="41" t="s">
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="27" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C90" s="28">
         <v>2006</v>
       </c>
-      <c r="D89" s="46" t="s">
+      <c r="D90" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="29" t="s">
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="39" t="s">
+    <row r="91" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C90" s="40">
+      <c r="C91" s="40">
         <v>2007</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D91" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="41" t="s">
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="27" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C92" s="28">
         <v>2008</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D92" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="29" t="s">
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="39" t="s">
+    <row r="93" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C93" s="40">
         <v>2009</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D93" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="41" t="s">
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="27" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C94" s="28">
         <v>2010</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D94" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="29" t="s">
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="39" t="s">
+    <row r="95" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C95" s="40">
         <v>2011</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D95" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="41" t="s">
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="27" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C96" s="28">
         <v>2012</v>
       </c>
-      <c r="D95" s="46" t="s">
+      <c r="D96" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="29" t="s">
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="2:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="39" t="s">
+    <row r="97" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C97" s="40">
         <v>2013</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D97" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="41" t="s">
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="27" t="s">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C98" s="28">
         <v>2014</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D98" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E97" s="46"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
-      <c r="I97" s="46"/>
-      <c r="J97" s="29" t="s">
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="39" t="s">
+    <row r="99" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C99" s="40">
         <v>2015</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D99" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="41" t="s">
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C100" s="28">
         <v>2016</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D100" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="46"/>
-      <c r="J99" s="29" t="s">
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="39" t="s">
+    <row r="101" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C100" s="40">
+      <c r="C101" s="40">
         <v>2017</v>
       </c>
-      <c r="D100" s="48" t="s">
+      <c r="D101" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="41" t="s">
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="27" t="s">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="28">
+      <c r="C102" s="28">
         <v>2018</v>
       </c>
-      <c r="D101" s="46" t="s">
+      <c r="D102" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
-      <c r="J101" s="29" t="s">
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="39" t="s">
+    <row r="103" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="40">
+      <c r="C103" s="40">
         <v>2019</v>
       </c>
-      <c r="D102" s="48" t="s">
+      <c r="D103" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="41" t="s">
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K102" s="38" t="s">
+      <c r="K103" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="27" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="28">
+      <c r="C104" s="28">
         <v>2020</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D104" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-      <c r="J103" s="29" t="s">
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K104" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="39" t="s">
+    <row r="105" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="40">
+      <c r="C105" s="40">
         <v>2021</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D105" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="41" t="s">
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="K104" s="38" t="s">
+      <c r="K105" s="38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="27" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C105" s="28">
+      <c r="C106" s="28">
         <v>2022</v>
       </c>
-      <c r="D105" s="46" t="s">
+      <c r="D106" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E105" s="46"/>
-      <c r="F105" s="46"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
-      <c r="I105" s="46"/>
-      <c r="J105" s="29" t="s">
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="39" t="s">
+    <row r="107" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C106" s="40">
+      <c r="C107" s="40">
         <v>2023</v>
       </c>
-      <c r="D106" s="48" t="s">
+      <c r="D107" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="41" t="s">
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="27" t="s">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="28">
+      <c r="C108" s="28">
         <v>2024</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D108" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
-      <c r="I107" s="46"/>
-      <c r="J107" s="29" t="s">
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="39" t="s">
+    <row r="109" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="40">
+      <c r="C109" s="40">
         <v>2025</v>
       </c>
-      <c r="D108" s="48" t="s">
+      <c r="D109" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="41" t="s">
+      <c r="E109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="27" t="s">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="28">
+      <c r="C110" s="28">
         <v>2026</v>
       </c>
-      <c r="D109" s="46" t="s">
+      <c r="D110" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="E109" s="46"/>
-      <c r="F109" s="46"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="29" t="s">
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="39" t="s">
+    <row r="111" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="40">
+      <c r="C111" s="40">
         <v>2027</v>
       </c>
-      <c r="D110" s="48" t="s">
+      <c r="D111" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="41" t="s">
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="27" t="s">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C111" s="28">
+      <c r="C112" s="28">
         <v>2028</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D112" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="46"/>
-      <c r="J111" s="29" t="s">
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="2:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="39" t="s">
+    <row r="113" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C112" s="40">
+      <c r="C113" s="40">
         <v>2029</v>
       </c>
-      <c r="D112" s="48" t="s">
+      <c r="D113" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="41" t="s">
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="27" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="28">
+      <c r="C114" s="28">
         <v>2030</v>
       </c>
-      <c r="D113" s="46" t="s">
+      <c r="D114" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="E113" s="46"/>
-      <c r="F113" s="46"/>
-      <c r="G113" s="46"/>
-      <c r="H113" s="46"/>
-      <c r="I113" s="46"/>
-      <c r="J113" s="29" t="s">
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K114" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="39" t="s">
+    <row r="115" spans="1:11" s="38" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42"/>
+      <c r="B115" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="40">
+      <c r="C115" s="40">
         <v>2031</v>
       </c>
-      <c r="D114" s="49" t="s">
+      <c r="D115" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
-      <c r="J114" s="41" t="s">
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="27" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C116" s="28">
         <v>2032</v>
       </c>
-      <c r="D115" s="46" t="s">
+      <c r="D116" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="46"/>
-      <c r="H115" s="46"/>
-      <c r="I115" s="46"/>
-      <c r="J115" s="29" t="s">
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="39" t="s">
+    <row r="117" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C116" s="40">
+      <c r="C117" s="40">
         <v>2033</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="D117" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="41" t="s">
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="27" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C118" s="28">
         <v>2034</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D118" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="29" t="s">
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="39" t="s">
+    <row r="119" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="40">
+      <c r="C119" s="40">
         <v>2035</v>
       </c>
-      <c r="D118" s="48" t="s">
+      <c r="D119" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="48"/>
-      <c r="J118" s="41" t="s">
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="27" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C120" s="28">
         <v>2036</v>
       </c>
-      <c r="D119" s="46" t="s">
+      <c r="D120" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="29" t="s">
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="29" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="39" t="s">
+    <row r="121" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="40">
+      <c r="C121" s="40">
         <v>80</v>
       </c>
-      <c r="D120" s="48" t="s">
+      <c r="D121" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-      <c r="J120" s="41" t="s">
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="43" t="s">
+    <row r="122" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="44">
+      <c r="C122" s="44">
         <v>2037</v>
       </c>
-      <c r="D121" s="47" t="s">
+      <c r="D122" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="45" t="s">
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="45" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" s="28">
-        <v>79</v>
-      </c>
-      <c r="D122" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C123" s="28">
-        <v>62</v>
-      </c>
-      <c r="D123" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
+        <v>79</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
       <c r="J123" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C124" s="28">
-        <v>91</v>
-      </c>
-      <c r="D124" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="46"/>
+        <v>62</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
       <c r="J124" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D125" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
+        <v>189</v>
+      </c>
+      <c r="C125" s="28">
+        <v>91</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
       <c r="J125" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C126" s="30">
-        <v>66</v>
-      </c>
-      <c r="D126" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="E126" s="46"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
+        <v>191</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
       <c r="J126" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C127" s="30">
-        <v>76</v>
-      </c>
-      <c r="D127" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
+        <v>66</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="53"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
       <c r="J127" s="29" t="s">
         <v>182</v>
       </c>
@@ -7989,17 +8066,36 @@
         <v>197</v>
       </c>
       <c r="C128" s="30">
+        <v>76</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="30">
         <v>77</v>
       </c>
-      <c r="D128" s="46" t="s">
+      <c r="D129" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="29" t="s">
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="29" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8008,26 +8104,48 @@
     <sortCondition ref="C76:C77"/>
   </sortState>
   <dataConsolidate/>
-  <mergeCells count="67">
-    <mergeCell ref="D77:I77"/>
+  <mergeCells count="68">
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D128:I128"/>
+    <mergeCell ref="D129:I129"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D111:I111"/>
+    <mergeCell ref="D112:I112"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D121:I121"/>
+    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D124:I124"/>
     <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D109:I109"/>
     <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="D112:I112"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D85:I85"/>
     <mergeCell ref="D86:I86"/>
     <mergeCell ref="D87:I87"/>
     <mergeCell ref="D88:I88"/>
@@ -8038,50 +8156,29 @@
     <mergeCell ref="D93:I93"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D126:I126"/>
     <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D111:I111"/>
-    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D100:I100"/>
     <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D108:I108"/>
   </mergeCells>
-  <conditionalFormatting sqref="C83:C99 C101:C118">
+  <conditionalFormatting sqref="C84:C100 C102:C119">
     <cfRule type="duplicateValues" dxfId="30" priority="30"/>
     <cfRule type="duplicateValues" dxfId="29" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C72 C78">
+  <conditionalFormatting sqref="C59:C72 C79">
     <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F44 F46:F55">
@@ -8093,47 +8190,47 @@
   <conditionalFormatting sqref="B7:G55">
     <cfRule type="duplicateValues" dxfId="25" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
+  <conditionalFormatting sqref="C101">
     <cfRule type="duplicateValues" dxfId="24" priority="28"/>
     <cfRule type="duplicateValues" dxfId="23" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="duplicateValues" dxfId="16" priority="16"/>
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
     <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C128">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
+  <conditionalFormatting sqref="C129">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
@@ -8143,7 +8240,7 @@
   <conditionalFormatting sqref="C74">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C77">
+  <conditionalFormatting sqref="C75:C78">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8153,19 +8250,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1157" r:id="rId4" name="_ActiveXWrapper53">
+        <control shapeId="1158" r:id="rId4" name="_ActiveXWrapper54">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>75</xdr:row>
+                <xdr:row>77</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>75</xdr:row>
+                <xdr:row>77</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
@@ -8173,12 +8270,237 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1157" r:id="rId4" name="_ActiveXWrapper53"/>
+        <control shapeId="1158" r:id="rId4" name="_ActiveXWrapper54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1112" r:id="rId6" name="_ActiveXWrapper43">
+        <control shapeId="1156" r:id="rId6" name="_ActiveXWrapper52">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1156" r:id="rId6" name="_ActiveXWrapper52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1121" r:id="rId7" name="_ActiveXWrapper51">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>122</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1121" r:id="rId7" name="_ActiveXWrapper51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1120" r:id="rId8" name="_ActiveXWrapper50">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1120" r:id="rId8" name="_ActiveXWrapper50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1119" r:id="rId9" name="_ActiveXWrapper49">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>119</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1119" r:id="rId9" name="_ActiveXWrapper49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1118" r:id="rId10" name="_ActiveXWrapper48">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>118</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1118" r:id="rId10" name="_ActiveXWrapper48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1117" r:id="rId11" name="_ActiveXWrapper47">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1117" r:id="rId11" name="_ActiveXWrapper47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1116" r:id="rId12" name="_ActiveXWrapper46">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>115</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>116</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1116" r:id="rId12" name="_ActiveXWrapper46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1114" r:id="rId13" name="_ActiveXWrapper45">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>276225</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1114" r:id="rId13" name="_ActiveXWrapper45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1113" r:id="rId14" name="_ActiveXWrapper44">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>113</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>114</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1113" r:id="rId14" name="_ActiveXWrapper44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1111" r:id="rId15" name="_ActiveXWrapper42">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -8198,474 +8520,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1112" r:id="rId6" name="_ActiveXWrapper43"/>
+        <control shapeId="1111" r:id="rId15" name="_ActiveXWrapper42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId7" name="_ActiveXWrapper17">
+        <control shapeId="1110" r:id="rId16" name="_ActiveXWrapper41">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId7" name="_ActiveXWrapper17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId8" name="_ActiveXWrapper16">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId8" name="_ActiveXWrapper16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId9" name="_ActiveXWrapper15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId9" name="_ActiveXWrapper15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId10" name="_ActiveXWrapper14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId10" name="_ActiveXWrapper14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId11" name="_ActiveXWrapper13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId11" name="_ActiveXWrapper13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId12" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId12" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId13" name="_ActiveXWrapper11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId13" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId14" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId14" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId15" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId15" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId16" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId16" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId17" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId17" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId18" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId18" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId19" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId19" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId20" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId20" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId21" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId21" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId22" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId22" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId23" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId24">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId23" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId25" name="_ActiveXWrapper18">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>82</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId25" name="_ActiveXWrapper18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1088" r:id="rId26" name="_ActiveXWrapper19">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>111</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8673,24 +8545,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1088" r:id="rId26" name="_ActiveXWrapper19"/>
+        <control shapeId="1110" r:id="rId16" name="_ActiveXWrapper41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1089" r:id="rId27" name="_ActiveXWrapper20">
+        <control shapeId="1109" r:id="rId17" name="_ActiveXWrapper40">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>84</xdr:row>
+                <xdr:row>109</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>110</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8698,24 +8570,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1089" r:id="rId27" name="_ActiveXWrapper20"/>
+        <control shapeId="1109" r:id="rId17" name="_ActiveXWrapper40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1090" r:id="rId28" name="_ActiveXWrapper21">
+        <control shapeId="1108" r:id="rId18" name="_ActiveXWrapper39">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>109</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8723,24 +8595,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1090" r:id="rId28" name="_ActiveXWrapper21"/>
+        <control shapeId="1108" r:id="rId18" name="_ActiveXWrapper39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1091" r:id="rId29" name="_ActiveXWrapper22">
+        <control shapeId="1107" r:id="rId19" name="_ActiveXWrapper38">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>86</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>87</xdr:row>
+                <xdr:row>108</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8748,24 +8620,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1091" r:id="rId29" name="_ActiveXWrapper22"/>
+        <control shapeId="1107" r:id="rId19" name="_ActiveXWrapper38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1092" r:id="rId30" name="_ActiveXWrapper23">
+        <control shapeId="1106" r:id="rId20" name="_ActiveXWrapper37">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>89</xdr:row>
+                <xdr:row>106</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>107</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8773,24 +8645,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1092" r:id="rId30" name="_ActiveXWrapper23"/>
+        <control shapeId="1106" r:id="rId20" name="_ActiveXWrapper37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24">
+        <control shapeId="1105" r:id="rId21" name="_ActiveXWrapper36">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>90</xdr:row>
+                <xdr:row>105</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>91</xdr:row>
+                <xdr:row>106</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8798,7 +8670,257 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1093" r:id="rId31" name="_ActiveXWrapper24"/>
+        <control shapeId="1105" r:id="rId21" name="_ActiveXWrapper36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1104" r:id="rId22" name="_ActiveXWrapper35">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>89</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1104" r:id="rId22" name="_ActiveXWrapper35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1103" r:id="rId23" name="_ActiveXWrapper34">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1103" r:id="rId23" name="_ActiveXWrapper34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1102" r:id="rId24" name="_ActiveXWrapper33">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1102" r:id="rId24" name="_ActiveXWrapper33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1101" r:id="rId25" name="_ActiveXWrapper32">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1101" r:id="rId25" name="_ActiveXWrapper32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1100" r:id="rId26" name="_ActiveXWrapper31">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>99</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1100" r:id="rId26" name="_ActiveXWrapper31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1099" r:id="rId27" name="_ActiveXWrapper30">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1099" r:id="rId27" name="_ActiveXWrapper30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1098" r:id="rId28" name="_ActiveXWrapper29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1098" r:id="rId28" name="_ActiveXWrapper29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1097" r:id="rId29" name="_ActiveXWrapper28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1097" r:id="rId29" name="_ActiveXWrapper28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1096" r:id="rId30" name="_ActiveXWrapper27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1096" r:id="rId30" name="_ActiveXWrapper27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1095" r:id="rId31" name="_ActiveXWrapper26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>93</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1095" r:id="rId31" name="_ActiveXWrapper26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8809,13 +8931,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>91</xdr:row>
+                <xdr:row>92</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>92</xdr:row>
+                <xdr:row>93</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8828,19 +8950,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1095" r:id="rId33" name="_ActiveXWrapper26">
+        <control shapeId="1093" r:id="rId33" name="_ActiveXWrapper24">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>92</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>93</xdr:row>
+                <xdr:row>92</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8848,24 +8970,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1095" r:id="rId33" name="_ActiveXWrapper26"/>
+        <control shapeId="1093" r:id="rId33" name="_ActiveXWrapper24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1096" r:id="rId34" name="_ActiveXWrapper27">
+        <control shapeId="1092" r:id="rId34" name="_ActiveXWrapper23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>93</xdr:row>
+                <xdr:row>90</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>94</xdr:row>
+                <xdr:row>91</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -8873,187 +8995,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1096" r:id="rId34" name="_ActiveXWrapper27"/>
+        <control shapeId="1092" r:id="rId34" name="_ActiveXWrapper23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1097" r:id="rId35" name="_ActiveXWrapper28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1097" r:id="rId35" name="_ActiveXWrapper28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1098" r:id="rId36" name="_ActiveXWrapper29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1098" r:id="rId36" name="_ActiveXWrapper29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1099" r:id="rId37" name="_ActiveXWrapper30">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>96</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1099" r:id="rId37" name="_ActiveXWrapper30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1100" r:id="rId38" name="_ActiveXWrapper31">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1100" r:id="rId38" name="_ActiveXWrapper31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1101" r:id="rId39" name="_ActiveXWrapper32">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1101" r:id="rId39" name="_ActiveXWrapper32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1102" r:id="rId40" name="_ActiveXWrapper33">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>99</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1102" r:id="rId40" name="_ActiveXWrapper33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1103" r:id="rId41" name="_ActiveXWrapper34">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1103" r:id="rId41" name="_ActiveXWrapper34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1104" r:id="rId42" name="_ActiveXWrapper35">
+        <control shapeId="1091" r:id="rId35" name="_ActiveXWrapper22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -9073,24 +9020,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1104" r:id="rId42" name="_ActiveXWrapper35"/>
+        <control shapeId="1091" r:id="rId35" name="_ActiveXWrapper22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1105" r:id="rId43" name="_ActiveXWrapper36">
+        <control shapeId="1090" r:id="rId36" name="_ActiveXWrapper21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>104</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>87</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -9098,24 +9045,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1105" r:id="rId43" name="_ActiveXWrapper36"/>
+        <control shapeId="1090" r:id="rId36" name="_ActiveXWrapper21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1106" r:id="rId44" name="_ActiveXWrapper37">
+        <control shapeId="1089" r:id="rId37" name="_ActiveXWrapper20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>105</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>106</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -9123,24 +9070,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1106" r:id="rId44" name="_ActiveXWrapper37"/>
+        <control shapeId="1089" r:id="rId37" name="_ActiveXWrapper20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1107" r:id="rId45" name="_ActiveXWrapper38">
+        <control shapeId="1088" r:id="rId38" name="_ActiveXWrapper19">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>106</xdr:row>
+                <xdr:row>84</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>107</xdr:row>
+                <xdr:row>85</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -9148,112 +9095,462 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1107" r:id="rId45" name="_ActiveXWrapper38"/>
+        <control shapeId="1088" r:id="rId38" name="_ActiveXWrapper19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1108" r:id="rId46" name="_ActiveXWrapper39">
+        <control shapeId="1075" r:id="rId39" name="_ActiveXWrapper18">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1108" r:id="rId46" name="_ActiveXWrapper39"/>
+        <control shapeId="1075" r:id="rId39" name="_ActiveXWrapper18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1109" r:id="rId47" name="_ActiveXWrapper40">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1045" r:id="rId40" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1109" r:id="rId47" name="_ActiveXWrapper40"/>
+        <control shapeId="1045" r:id="rId40" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1110" r:id="rId48" name="_ActiveXWrapper41">
+        <control shapeId="1046" r:id="rId42" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>109</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1110" r:id="rId48" name="_ActiveXWrapper41"/>
+        <control shapeId="1046" r:id="rId42" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1111" r:id="rId49" name="_ActiveXWrapper42">
+        <control shapeId="1060" r:id="rId43" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>110</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>111</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1111" r:id="rId49" name="_ActiveXWrapper42"/>
+        <control shapeId="1060" r:id="rId43" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1113" r:id="rId50" name="_ActiveXWrapper44">
+        <control shapeId="1061" r:id="rId44" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId44" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId45" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId45" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId46" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId46" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId47" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId47" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId48" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId48" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId49" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId49" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId50" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId50" name="_ActiveXWrapper10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId51" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId51" name="_ActiveXWrapper11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId52" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId52" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId53" name="_ActiveXWrapper13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId53" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId54" name="_ActiveXWrapper14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId54" name="_ActiveXWrapper14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId55" name="_ActiveXWrapper15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId55" name="_ActiveXWrapper15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId56" name="_ActiveXWrapper16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId56" name="_ActiveXWrapper16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId57" name="_ActiveXWrapper17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId57" name="_ActiveXWrapper17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1112" r:id="rId58" name="_ActiveXWrapper43">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -9273,199 +9570,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1113" r:id="rId50" name="_ActiveXWrapper44"/>
+        <control shapeId="1112" r:id="rId58" name="_ActiveXWrapper43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1114" r:id="rId51" name="_ActiveXWrapper45">
+        <control shapeId="1157" r:id="rId59" name="_ActiveXWrapper53">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>113</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1114" r:id="rId51" name="_ActiveXWrapper45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1116" r:id="rId52" name="_ActiveXWrapper46">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>114</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1116" r:id="rId52" name="_ActiveXWrapper46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1117" r:id="rId53" name="_ActiveXWrapper47">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>115</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1117" r:id="rId53" name="_ActiveXWrapper47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1118" r:id="rId54" name="_ActiveXWrapper48">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>116</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1118" r:id="rId54" name="_ActiveXWrapper48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1119" r:id="rId55" name="_ActiveXWrapper49">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>117</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1119" r:id="rId55" name="_ActiveXWrapper49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1120" r:id="rId56" name="_ActiveXWrapper50">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>118</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>119</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1120" r:id="rId56" name="_ActiveXWrapper50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1121" r:id="rId57" name="_ActiveXWrapper51">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>120</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>121</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1121" r:id="rId57" name="_ActiveXWrapper51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1156" r:id="rId58" name="_ActiveXWrapper52">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
                 <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>75</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>75</xdr:row>
                 <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
@@ -9473,7 +9595,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1156" r:id="rId58" name="_ActiveXWrapper52"/>
+        <control shapeId="1157" r:id="rId59" name="_ActiveXWrapper53"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
